--- a/수학기초개념학습.xlsx
+++ b/수학기초개념학습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6A1CA-64E0-4B33-92CF-37140E6D8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49FD70-9B57-4E35-95C8-B29684D69FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <sheet name="확률" sheetId="2" r:id="rId6"/>
     <sheet name="상관회귀" sheetId="7" r:id="rId7"/>
     <sheet name="데이터표현" sheetId="8" r:id="rId8"/>
-    <sheet name="상관" sheetId="9" r:id="rId9"/>
+    <sheet name="SQL" sheetId="10" r:id="rId9"/>
+    <sheet name="상관" sheetId="9" r:id="rId10"/>
+    <sheet name="모델평가" sheetId="11" r:id="rId11"/>
+    <sheet name="이미지정규화" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
   <si>
     <t>거래번호</t>
   </si>
@@ -589,12 +592,124 @@
     <t>공분산/표준편차의곱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Structured</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조화된</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data Definition Language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data Control Language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DML</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data Manipulate Language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>revoke</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql의 명령어를 이행시키는, 쌓여있는 명령어를 이행시키는 단위</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>생</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>략</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,8 +769,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,8 +808,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -918,13 +1124,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,6 +1394,132 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6379,6 +6843,6934 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094C0037-AC5B-487B-BCF8-999965EA532C}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="13">
+        <v>166</v>
+      </c>
+      <c r="C2" s="13">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1">
+      <c r="B3" s="13">
+        <v>168</v>
+      </c>
+      <c r="C3" s="13">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1">
+      <c r="B4" s="13">
+        <v>170</v>
+      </c>
+      <c r="C4" s="13">
+        <v>50</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="38">
+        <f>$B$7-B2</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="38">
+        <f>C2-$C$7</f>
+        <v>26.939999999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="13">
+        <v>172</v>
+      </c>
+      <c r="C5" s="13">
+        <v>70</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30">
+        <f t="shared" ref="G5:G8" si="0">$B$7-B3</f>
+        <v>2</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30">
+        <f t="shared" ref="I5:I8" si="1">C3-$C$7</f>
+        <v>-3.0600000000000023</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="13">
+        <v>174</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45.3</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30">
+        <f t="shared" si="1"/>
+        <v>-13.060000000000002</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.VAR.P(B2:B6)</f>
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <f>L6^0.5</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)/5</f>
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)/5</f>
+        <v>63.06</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30">
+        <f t="shared" si="1"/>
+        <v>6.9399999999999977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <f>COUNT(B2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>COUNT(C2:C6)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32">
+        <f t="shared" si="1"/>
+        <v>-17.760000000000005</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickBot="1">
+      <c r="F9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9">
+        <f>_xlfn.VAR.S(B2:B6)</f>
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9">
+        <f>L9^0.5</f>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30">
+        <f>G4*I4</f>
+        <v>107.75999999999999</v>
+      </c>
+      <c r="I10" s="33">
+        <f>G4^2</f>
+        <v>16</v>
+      </c>
+      <c r="J10" s="33">
+        <f>I4^2</f>
+        <v>725.76359999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30">
+        <f t="shared" ref="G11:G14" si="2">G5*I5</f>
+        <v>-6.1200000000000045</v>
+      </c>
+      <c r="I11" s="33">
+        <f>G5^2</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" ref="J11:J13" si="3">I5^2</f>
+        <v>9.3636000000000141</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <f>G6^2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="3"/>
+        <v>170.56360000000006</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <f>J16/5</f>
+        <v>253.85440000000003</v>
+      </c>
+      <c r="P12">
+        <f>M12^0.5</f>
+        <v>15.93280891745081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30">
+        <f t="shared" si="2"/>
+        <v>-13.879999999999995</v>
+      </c>
+      <c r="I13" s="33">
+        <f>G7^2</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="3"/>
+        <v>48.163599999999967</v>
+      </c>
+      <c r="M13">
+        <f>_xlfn.VAR.P(C2:C6)</f>
+        <v>253.85439999999943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.25" thickBot="1">
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
+        <f t="shared" si="2"/>
+        <v>71.04000000000002</v>
+      </c>
+      <c r="I14" s="33">
+        <f>G8^2</f>
+        <v>16</v>
+      </c>
+      <c r="J14" s="33">
+        <f>I8^2</f>
+        <v>315.41760000000016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.25" thickBot="1">
+      <c r="F15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="38">
+        <f>SUM(G10:G14)</f>
+        <v>158.80000000000001</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15">
+        <f>J16/4</f>
+        <v>317.31800000000004</v>
+      </c>
+      <c r="P15">
+        <f>M15^0.5</f>
+        <v>17.813421905967424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickBot="1">
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="41">
+        <f>G15/5</f>
+        <v>31.76</v>
+      </c>
+      <c r="I16" s="34">
+        <f>SUM(I10:I14)</f>
+        <v>40</v>
+      </c>
+      <c r="J16" s="34">
+        <f>SUM(J10:J14)</f>
+        <v>1269.2720000000002</v>
+      </c>
+      <c r="M16">
+        <f>_xlfn.VAR.S(C2:C6)</f>
+        <v>317.3179999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" ht="17.25" thickBot="1">
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" ht="17.25" thickBot="1">
+      <c r="G18">
+        <f>_xlfn.COVARIANCE.P(B2:B6,C2:C6)</f>
+        <v>-31.76</v>
+      </c>
+      <c r="I18" s="35">
+        <f>I16*J16</f>
+        <v>50770.880000000005</v>
+      </c>
+      <c r="J18" s="35">
+        <f>I18^(0.5)</f>
+        <v>225.32394457757925</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" ht="17.25" thickBot="1">
+      <c r="G19">
+        <f>_xlfn.COVARIANCE.S(B2:B6,C2:C6)</f>
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="L19" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" ht="17.25" thickBot="1">
+      <c r="I20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="36">
+        <f>G15/J18</f>
+        <v>0.70476309252310743</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="M21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="L22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22">
+        <f>G19/(P9*P15)</f>
+        <v>-0.70476309252310732</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="M23">
+        <f>CORREL(B2:B6,C2:C6)</f>
+        <v>-0.70476309252310732</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A34552-9CD1-44F6-A66C-C34812AE51DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E34BE1-F17A-429A-A1FB-C95709826963}">
+  <dimension ref="A1:CB175"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16" width="4" style="46" customWidth="1"/>
+    <col min="17" max="80" width="4.875" style="46" customWidth="1"/>
+    <col min="81" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="51">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51">
+        <v>0</v>
+      </c>
+      <c r="D1" s="51">
+        <v>0</v>
+      </c>
+      <c r="E1" s="51">
+        <v>0</v>
+      </c>
+      <c r="F1" s="51">
+        <v>0</v>
+      </c>
+      <c r="G1" s="51">
+        <v>0</v>
+      </c>
+      <c r="H1" s="51">
+        <v>0</v>
+      </c>
+      <c r="I1" s="51">
+        <v>0</v>
+      </c>
+      <c r="J1" s="51">
+        <v>0</v>
+      </c>
+      <c r="K1" s="51">
+        <v>0</v>
+      </c>
+      <c r="L1" s="51">
+        <v>0</v>
+      </c>
+      <c r="M1" s="51">
+        <v>0</v>
+      </c>
+      <c r="N1" s="51">
+        <v>0</v>
+      </c>
+      <c r="O1" s="51">
+        <v>0</v>
+      </c>
+      <c r="P1" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>0</v>
+      </c>
+      <c r="R1" s="52">
+        <v>0</v>
+      </c>
+      <c r="S1" s="52">
+        <v>0</v>
+      </c>
+      <c r="T1" s="52">
+        <v>0</v>
+      </c>
+      <c r="U1" s="52">
+        <v>0</v>
+      </c>
+      <c r="V1" s="52">
+        <v>0</v>
+      </c>
+      <c r="W1" s="52">
+        <v>0</v>
+      </c>
+      <c r="X1" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="53">
+        <f>A1/255</f>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="53">
+        <f t="shared" ref="AE1:BE1" si="0">B1/255</f>
+        <v>0</v>
+      </c>
+      <c r="AF1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE1" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A2" s="51">
+        <v>0</v>
+      </c>
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0</v>
+      </c>
+      <c r="H2" s="51">
+        <v>0</v>
+      </c>
+      <c r="I2" s="51">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51">
+        <v>0</v>
+      </c>
+      <c r="K2" s="51">
+        <v>0</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0</v>
+      </c>
+      <c r="M2" s="51">
+        <v>0</v>
+      </c>
+      <c r="N2" s="51">
+        <v>0</v>
+      </c>
+      <c r="O2" s="51">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="52">
+        <v>0</v>
+      </c>
+      <c r="R2" s="52">
+        <v>0</v>
+      </c>
+      <c r="S2" s="52">
+        <v>0</v>
+      </c>
+      <c r="T2" s="52">
+        <v>0</v>
+      </c>
+      <c r="U2" s="52">
+        <v>0</v>
+      </c>
+      <c r="V2" s="52">
+        <v>0</v>
+      </c>
+      <c r="W2" s="52">
+        <v>0</v>
+      </c>
+      <c r="X2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="53">
+        <f t="shared" ref="AD2:AD28" si="1">A2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="53">
+        <f t="shared" ref="AE2:AE28" si="2">B2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="53">
+        <f t="shared" ref="AF2:AF28" si="3">C2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="53">
+        <f t="shared" ref="AG2:AG28" si="4">D2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="53">
+        <f t="shared" ref="AH2:AH28" si="5">E2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="53">
+        <f t="shared" ref="AI2:AI28" si="6">F2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="53">
+        <f t="shared" ref="AJ2:AJ28" si="7">G2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="53">
+        <f t="shared" ref="AK2:AK28" si="8">H2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="53">
+        <f t="shared" ref="AL2:AL28" si="9">I2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="53">
+        <f t="shared" ref="AM2:AM28" si="10">J2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="53">
+        <f t="shared" ref="AN2:AN28" si="11">K2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="53">
+        <f t="shared" ref="AO2:AO28" si="12">L2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="53">
+        <f t="shared" ref="AP2:AP28" si="13">M2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="53">
+        <f t="shared" ref="AQ2:AQ28" si="14">N2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="53">
+        <f t="shared" ref="AR2:AR28" si="15">O2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="53">
+        <f t="shared" ref="AS2:AS28" si="16">P2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="53">
+        <f t="shared" ref="AT2:AT28" si="17">Q2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="53">
+        <f t="shared" ref="AU2:AU28" si="18">R2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="53">
+        <f t="shared" ref="AV2:AV28" si="19">S2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="53">
+        <f t="shared" ref="AW2:AW28" si="20">T2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="53">
+        <f t="shared" ref="AX2:AX28" si="21">U2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AY2" s="53">
+        <f t="shared" ref="AY2:AY28" si="22">V2/255</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="53">
+        <f t="shared" ref="AZ2:AZ28" si="23">W2/255</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="53">
+        <f t="shared" ref="BA2:BA28" si="24">X2/255</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="53">
+        <f t="shared" ref="BB2:BB28" si="25">Y2/255</f>
+        <v>0</v>
+      </c>
+      <c r="BC2" s="53">
+        <f t="shared" ref="BC2:BC28" si="26">Z2/255</f>
+        <v>0</v>
+      </c>
+      <c r="BD2" s="53">
+        <f t="shared" ref="BD2:BD28" si="27">AA2/255</f>
+        <v>0</v>
+      </c>
+      <c r="BE2" s="53">
+        <f t="shared" ref="BE2:BE28" si="28">AB2/255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="51">
+        <v>0</v>
+      </c>
+      <c r="B3" s="51">
+        <v>0</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0</v>
+      </c>
+      <c r="I3" s="51">
+        <v>0</v>
+      </c>
+      <c r="J3" s="51">
+        <v>0</v>
+      </c>
+      <c r="K3" s="51">
+        <v>0</v>
+      </c>
+      <c r="L3" s="51">
+        <v>0</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0</v>
+      </c>
+      <c r="O3" s="51">
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>0</v>
+      </c>
+      <c r="R3" s="52">
+        <v>0</v>
+      </c>
+      <c r="S3" s="52">
+        <v>0</v>
+      </c>
+      <c r="T3" s="52">
+        <v>0</v>
+      </c>
+      <c r="U3" s="52">
+        <v>0</v>
+      </c>
+      <c r="V3" s="52">
+        <v>0</v>
+      </c>
+      <c r="W3" s="52">
+        <v>0</v>
+      </c>
+      <c r="X3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD3" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE3" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="51">
+        <v>0</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+      <c r="I4" s="51">
+        <v>0</v>
+      </c>
+      <c r="J4" s="51">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <v>255</v>
+      </c>
+      <c r="L4" s="53">
+        <v>255</v>
+      </c>
+      <c r="M4" s="53">
+        <v>255</v>
+      </c>
+      <c r="N4" s="53">
+        <v>255</v>
+      </c>
+      <c r="O4" s="55">
+        <v>124</v>
+      </c>
+      <c r="P4" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>255</v>
+      </c>
+      <c r="R4" s="54">
+        <v>255</v>
+      </c>
+      <c r="S4" s="54">
+        <v>255</v>
+      </c>
+      <c r="T4" s="54">
+        <v>255</v>
+      </c>
+      <c r="U4" s="52">
+        <v>0</v>
+      </c>
+      <c r="V4" s="52">
+        <v>0</v>
+      </c>
+      <c r="W4" s="52">
+        <v>0</v>
+      </c>
+      <c r="X4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP4" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR4" s="53">
+        <f t="shared" si="15"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AS4" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT4" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU4" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV4" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX4" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A5" s="51">
+        <v>0</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <v>255</v>
+      </c>
+      <c r="L5" s="53">
+        <v>255</v>
+      </c>
+      <c r="M5" s="55">
+        <v>124</v>
+      </c>
+      <c r="N5" s="53">
+        <v>255</v>
+      </c>
+      <c r="O5" s="53">
+        <v>255</v>
+      </c>
+      <c r="P5" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>255</v>
+      </c>
+      <c r="R5" s="54">
+        <v>255</v>
+      </c>
+      <c r="S5" s="54">
+        <v>255</v>
+      </c>
+      <c r="T5" s="54">
+        <v>255</v>
+      </c>
+      <c r="U5" s="52">
+        <v>0</v>
+      </c>
+      <c r="V5" s="52">
+        <v>0</v>
+      </c>
+      <c r="W5" s="52">
+        <v>0</v>
+      </c>
+      <c r="X5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP5" s="53">
+        <f t="shared" si="13"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AQ5" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR5" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS5" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT5" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV5" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC5" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="51">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51">
+        <v>0</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="J6" s="51">
+        <v>0</v>
+      </c>
+      <c r="K6" s="53">
+        <v>255</v>
+      </c>
+      <c r="L6" s="55">
+        <v>124</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51">
+        <v>0</v>
+      </c>
+      <c r="O6" s="51">
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>0</v>
+      </c>
+      <c r="R6" s="52">
+        <v>0</v>
+      </c>
+      <c r="S6" s="52">
+        <v>0</v>
+      </c>
+      <c r="T6" s="52">
+        <v>0</v>
+      </c>
+      <c r="U6" s="52">
+        <v>0</v>
+      </c>
+      <c r="V6" s="52">
+        <v>0</v>
+      </c>
+      <c r="W6" s="52">
+        <v>0</v>
+      </c>
+      <c r="X6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="53">
+        <f t="shared" si="12"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AP6" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB6" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="51">
+        <v>0</v>
+      </c>
+      <c r="B7" s="51">
+        <v>0</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53">
+        <v>255</v>
+      </c>
+      <c r="L7" s="53">
+        <v>255</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <v>0</v>
+      </c>
+      <c r="O7" s="51">
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>0</v>
+      </c>
+      <c r="R7" s="52">
+        <v>0</v>
+      </c>
+      <c r="S7" s="52">
+        <v>0</v>
+      </c>
+      <c r="T7" s="52">
+        <v>0</v>
+      </c>
+      <c r="U7" s="52">
+        <v>0</v>
+      </c>
+      <c r="V7" s="52">
+        <v>0</v>
+      </c>
+      <c r="W7" s="52">
+        <v>0</v>
+      </c>
+      <c r="X7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="51">
+        <v>0</v>
+      </c>
+      <c r="B8" s="51">
+        <v>0</v>
+      </c>
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
+        <v>0</v>
+      </c>
+      <c r="K8" s="55">
+        <v>124</v>
+      </c>
+      <c r="L8" s="53">
+        <v>255</v>
+      </c>
+      <c r="M8" s="51">
+        <v>0</v>
+      </c>
+      <c r="N8" s="51">
+        <v>0</v>
+      </c>
+      <c r="O8" s="51">
+        <v>0</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>0</v>
+      </c>
+      <c r="R8" s="52">
+        <v>0</v>
+      </c>
+      <c r="S8" s="52">
+        <v>0</v>
+      </c>
+      <c r="T8" s="52">
+        <v>0</v>
+      </c>
+      <c r="U8" s="52">
+        <v>0</v>
+      </c>
+      <c r="V8" s="52">
+        <v>0</v>
+      </c>
+      <c r="W8" s="52">
+        <v>0</v>
+      </c>
+      <c r="X8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="53">
+        <f t="shared" si="11"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AO8" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP8" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="51">
+        <v>0</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55">
+        <v>124</v>
+      </c>
+      <c r="L9" s="53">
+        <v>255</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0</v>
+      </c>
+      <c r="N9" s="51">
+        <v>0</v>
+      </c>
+      <c r="O9" s="51">
+        <v>0</v>
+      </c>
+      <c r="P9" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>0</v>
+      </c>
+      <c r="R9" s="52">
+        <v>0</v>
+      </c>
+      <c r="S9" s="52">
+        <v>0</v>
+      </c>
+      <c r="T9" s="52">
+        <v>0</v>
+      </c>
+      <c r="U9" s="52">
+        <v>0</v>
+      </c>
+      <c r="V9" s="52">
+        <v>0</v>
+      </c>
+      <c r="W9" s="52">
+        <v>0</v>
+      </c>
+      <c r="X9" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="53">
+        <f t="shared" si="11"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AO9" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP9" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A10" s="51">
+        <v>0</v>
+      </c>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="C10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55">
+        <v>124</v>
+      </c>
+      <c r="L10" s="53">
+        <v>255</v>
+      </c>
+      <c r="M10" s="51">
+        <v>0</v>
+      </c>
+      <c r="N10" s="51">
+        <v>0</v>
+      </c>
+      <c r="O10" s="51">
+        <v>0</v>
+      </c>
+      <c r="P10" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>255</v>
+      </c>
+      <c r="R10" s="54">
+        <v>255</v>
+      </c>
+      <c r="S10" s="54">
+        <v>255</v>
+      </c>
+      <c r="T10" s="52">
+        <v>0</v>
+      </c>
+      <c r="U10" s="52">
+        <v>0</v>
+      </c>
+      <c r="V10" s="52">
+        <v>0</v>
+      </c>
+      <c r="W10" s="52">
+        <v>0</v>
+      </c>
+      <c r="X10" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="53">
+        <f t="shared" si="11"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AO10" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP10" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT10" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU10" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV10" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="51">
+        <v>0</v>
+      </c>
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0</v>
+      </c>
+      <c r="J11" s="51">
+        <v>0</v>
+      </c>
+      <c r="K11" s="55">
+        <v>124</v>
+      </c>
+      <c r="L11" s="53">
+        <v>255</v>
+      </c>
+      <c r="M11" s="51">
+        <v>0</v>
+      </c>
+      <c r="N11" s="51">
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
+        <v>255</v>
+      </c>
+      <c r="P11" s="56">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>255</v>
+      </c>
+      <c r="R11" s="54">
+        <v>255</v>
+      </c>
+      <c r="S11" s="56">
+        <v>124</v>
+      </c>
+      <c r="T11" s="54">
+        <v>255</v>
+      </c>
+      <c r="U11" s="52">
+        <v>0</v>
+      </c>
+      <c r="V11" s="52">
+        <v>0</v>
+      </c>
+      <c r="W11" s="52">
+        <v>0</v>
+      </c>
+      <c r="X11" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="53">
+        <f t="shared" si="11"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AO11" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS11" s="53">
+        <f t="shared" si="16"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AT11" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV11" s="53">
+        <f t="shared" si="19"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AW11" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX11" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A12" s="51">
+        <v>0</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="51">
+        <v>0</v>
+      </c>
+      <c r="J12" s="51">
+        <v>0</v>
+      </c>
+      <c r="K12" s="53">
+        <v>255</v>
+      </c>
+      <c r="L12" s="55">
+        <v>124</v>
+      </c>
+      <c r="M12" s="53">
+        <v>255</v>
+      </c>
+      <c r="N12" s="53">
+        <v>255</v>
+      </c>
+      <c r="O12" s="53">
+        <v>255</v>
+      </c>
+      <c r="P12" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>0</v>
+      </c>
+      <c r="R12" s="54">
+        <v>255</v>
+      </c>
+      <c r="S12" s="54">
+        <v>255</v>
+      </c>
+      <c r="T12" s="54">
+        <v>255</v>
+      </c>
+      <c r="U12" s="52">
+        <v>0</v>
+      </c>
+      <c r="V12" s="52">
+        <v>0</v>
+      </c>
+      <c r="W12" s="52">
+        <v>0</v>
+      </c>
+      <c r="X12" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO12" s="53">
+        <f t="shared" si="12"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AP12" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR12" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS12" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV12" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW12" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX12" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="51">
+        <v>0</v>
+      </c>
+      <c r="B13" s="51">
+        <v>0</v>
+      </c>
+      <c r="C13" s="51">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
+        <v>0</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0</v>
+      </c>
+      <c r="K13" s="53">
+        <v>255</v>
+      </c>
+      <c r="L13" s="53">
+        <v>255</v>
+      </c>
+      <c r="M13" s="53">
+        <v>255</v>
+      </c>
+      <c r="N13" s="53">
+        <v>255</v>
+      </c>
+      <c r="O13" s="51">
+        <v>0</v>
+      </c>
+      <c r="P13" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>0</v>
+      </c>
+      <c r="R13" s="54">
+        <v>255</v>
+      </c>
+      <c r="S13" s="56">
+        <v>124</v>
+      </c>
+      <c r="T13" s="54">
+        <v>255</v>
+      </c>
+      <c r="U13" s="54">
+        <v>255</v>
+      </c>
+      <c r="V13" s="52">
+        <v>0</v>
+      </c>
+      <c r="W13" s="52">
+        <v>0</v>
+      </c>
+      <c r="X13" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR13" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV13" s="53">
+        <f t="shared" si="19"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AW13" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX13" s="53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AY13" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A14" s="51">
+        <v>0</v>
+      </c>
+      <c r="B14" s="51">
+        <v>0</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0</v>
+      </c>
+      <c r="J14" s="51">
+        <v>0</v>
+      </c>
+      <c r="K14" s="51">
+        <v>0</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0</v>
+      </c>
+      <c r="N14" s="51">
+        <v>0</v>
+      </c>
+      <c r="O14" s="51">
+        <v>0</v>
+      </c>
+      <c r="P14" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>0</v>
+      </c>
+      <c r="R14" s="52">
+        <v>0</v>
+      </c>
+      <c r="S14" s="54">
+        <v>255</v>
+      </c>
+      <c r="T14" s="54">
+        <v>255</v>
+      </c>
+      <c r="U14" s="56">
+        <v>124</v>
+      </c>
+      <c r="V14" s="52">
+        <v>0</v>
+      </c>
+      <c r="W14" s="52">
+        <v>0</v>
+      </c>
+      <c r="X14" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX14" s="53">
+        <f t="shared" si="21"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AY14" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A15" s="51">
+        <v>0</v>
+      </c>
+      <c r="B15" s="51">
+        <v>0</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
+        <v>0</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0</v>
+      </c>
+      <c r="N15" s="51">
+        <v>0</v>
+      </c>
+      <c r="O15" s="51">
+        <v>0</v>
+      </c>
+      <c r="P15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>0</v>
+      </c>
+      <c r="R15" s="52">
+        <v>0</v>
+      </c>
+      <c r="S15" s="54">
+        <v>255</v>
+      </c>
+      <c r="T15" s="56">
+        <v>124</v>
+      </c>
+      <c r="U15" s="54">
+        <v>255</v>
+      </c>
+      <c r="V15" s="52">
+        <v>0</v>
+      </c>
+      <c r="W15" s="52">
+        <v>0</v>
+      </c>
+      <c r="X15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW15" s="53">
+        <f t="shared" si="20"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AX15" s="53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AY15" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A16" s="51">
+        <v>0</v>
+      </c>
+      <c r="B16" s="51">
+        <v>0</v>
+      </c>
+      <c r="C16" s="51">
+        <v>0</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0</v>
+      </c>
+      <c r="J16" s="51">
+        <v>0</v>
+      </c>
+      <c r="K16" s="51">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51">
+        <v>0</v>
+      </c>
+      <c r="M16" s="51">
+        <v>0</v>
+      </c>
+      <c r="N16" s="51">
+        <v>0</v>
+      </c>
+      <c r="O16" s="51">
+        <v>0</v>
+      </c>
+      <c r="P16" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="52">
+        <v>0</v>
+      </c>
+      <c r="R16" s="52">
+        <v>0</v>
+      </c>
+      <c r="S16" s="54">
+        <v>255</v>
+      </c>
+      <c r="T16" s="54">
+        <v>255</v>
+      </c>
+      <c r="U16" s="54">
+        <v>255</v>
+      </c>
+      <c r="V16" s="52">
+        <v>0</v>
+      </c>
+      <c r="W16" s="52">
+        <v>0</v>
+      </c>
+      <c r="X16" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW16" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX16" s="53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AY16" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A17" s="51">
+        <v>0</v>
+      </c>
+      <c r="B17" s="51">
+        <v>0</v>
+      </c>
+      <c r="C17" s="51">
+        <v>0</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="51">
+        <v>0</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51">
+        <v>0</v>
+      </c>
+      <c r="I17" s="51">
+        <v>0</v>
+      </c>
+      <c r="J17" s="51">
+        <v>0</v>
+      </c>
+      <c r="K17" s="51">
+        <v>0</v>
+      </c>
+      <c r="L17" s="51">
+        <v>0</v>
+      </c>
+      <c r="M17" s="51">
+        <v>0</v>
+      </c>
+      <c r="N17" s="51">
+        <v>0</v>
+      </c>
+      <c r="O17" s="51">
+        <v>0</v>
+      </c>
+      <c r="P17" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>0</v>
+      </c>
+      <c r="R17" s="54">
+        <v>255</v>
+      </c>
+      <c r="S17" s="54">
+        <v>255</v>
+      </c>
+      <c r="T17" s="56">
+        <v>124</v>
+      </c>
+      <c r="U17" s="54">
+        <v>255</v>
+      </c>
+      <c r="V17" s="52">
+        <v>0</v>
+      </c>
+      <c r="W17" s="52">
+        <v>0</v>
+      </c>
+      <c r="X17" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV17" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW17" s="53">
+        <f t="shared" si="20"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AX17" s="53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AY17" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A18" s="51">
+        <v>0</v>
+      </c>
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="C18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51">
+        <v>0</v>
+      </c>
+      <c r="E18" s="51">
+        <v>0</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0</v>
+      </c>
+      <c r="G18" s="51">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0</v>
+      </c>
+      <c r="I18" s="51">
+        <v>0</v>
+      </c>
+      <c r="J18" s="51">
+        <v>0</v>
+      </c>
+      <c r="K18" s="51">
+        <v>0</v>
+      </c>
+      <c r="L18" s="51">
+        <v>0</v>
+      </c>
+      <c r="M18" s="51">
+        <v>0</v>
+      </c>
+      <c r="N18" s="51">
+        <v>0</v>
+      </c>
+      <c r="O18" s="51">
+        <v>0</v>
+      </c>
+      <c r="P18" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>0</v>
+      </c>
+      <c r="R18" s="54">
+        <v>255</v>
+      </c>
+      <c r="S18" s="54">
+        <v>255</v>
+      </c>
+      <c r="T18" s="54">
+        <v>255</v>
+      </c>
+      <c r="U18" s="54">
+        <v>255</v>
+      </c>
+      <c r="V18" s="52">
+        <v>0</v>
+      </c>
+      <c r="W18" s="52">
+        <v>0</v>
+      </c>
+      <c r="X18" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT18" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV18" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW18" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX18" s="53">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AY18" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A19" s="51">
+        <v>0</v>
+      </c>
+      <c r="B19" s="51">
+        <v>0</v>
+      </c>
+      <c r="C19" s="51">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0</v>
+      </c>
+      <c r="E19" s="51">
+        <v>0</v>
+      </c>
+      <c r="F19" s="51">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0</v>
+      </c>
+      <c r="I19" s="51">
+        <v>0</v>
+      </c>
+      <c r="J19" s="51">
+        <v>0</v>
+      </c>
+      <c r="K19" s="51">
+        <v>0</v>
+      </c>
+      <c r="L19" s="51">
+        <v>0</v>
+      </c>
+      <c r="M19" s="53">
+        <v>255</v>
+      </c>
+      <c r="N19" s="53">
+        <v>255</v>
+      </c>
+      <c r="O19" s="53">
+        <v>255</v>
+      </c>
+      <c r="P19" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>255</v>
+      </c>
+      <c r="R19" s="56">
+        <v>124</v>
+      </c>
+      <c r="S19" s="54">
+        <v>255</v>
+      </c>
+      <c r="T19" s="56">
+        <v>124</v>
+      </c>
+      <c r="U19" s="52">
+        <v>0</v>
+      </c>
+      <c r="V19" s="52">
+        <v>0</v>
+      </c>
+      <c r="W19" s="52">
+        <v>0</v>
+      </c>
+      <c r="X19" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR19" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS19" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT19" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU19" s="53">
+        <f t="shared" si="18"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AV19" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW19" s="53">
+        <f t="shared" si="20"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AX19" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A20" s="51">
+        <v>0</v>
+      </c>
+      <c r="B20" s="51">
+        <v>0</v>
+      </c>
+      <c r="C20" s="51">
+        <v>0</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0</v>
+      </c>
+      <c r="E20" s="51">
+        <v>0</v>
+      </c>
+      <c r="F20" s="51">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51">
+        <v>0</v>
+      </c>
+      <c r="I20" s="51">
+        <v>0</v>
+      </c>
+      <c r="J20" s="51">
+        <v>0</v>
+      </c>
+      <c r="K20" s="51">
+        <v>0</v>
+      </c>
+      <c r="L20" s="53">
+        <v>255</v>
+      </c>
+      <c r="M20" s="53">
+        <v>255</v>
+      </c>
+      <c r="N20" s="55">
+        <v>124</v>
+      </c>
+      <c r="O20" s="53">
+        <v>255</v>
+      </c>
+      <c r="P20" s="56">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>124</v>
+      </c>
+      <c r="R20" s="54">
+        <v>255</v>
+      </c>
+      <c r="S20" s="54">
+        <v>255</v>
+      </c>
+      <c r="T20" s="54">
+        <v>255</v>
+      </c>
+      <c r="U20" s="52">
+        <v>0</v>
+      </c>
+      <c r="V20" s="52">
+        <v>0</v>
+      </c>
+      <c r="W20" s="52">
+        <v>0</v>
+      </c>
+      <c r="X20" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP20" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="53">
+        <f t="shared" si="14"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AR20" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS20" s="53">
+        <f t="shared" si="16"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AT20" s="53">
+        <f t="shared" si="17"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AU20" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV20" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW20" s="53">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AX20" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB20" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A21" s="51">
+        <v>0</v>
+      </c>
+      <c r="B21" s="51">
+        <v>0</v>
+      </c>
+      <c r="C21" s="51">
+        <v>0</v>
+      </c>
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="51">
+        <v>0</v>
+      </c>
+      <c r="F21" s="51">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
+        <v>0</v>
+      </c>
+      <c r="H21" s="51">
+        <v>0</v>
+      </c>
+      <c r="I21" s="51">
+        <v>0</v>
+      </c>
+      <c r="J21" s="51">
+        <v>0</v>
+      </c>
+      <c r="K21" s="51">
+        <v>0</v>
+      </c>
+      <c r="L21" s="53">
+        <v>255</v>
+      </c>
+      <c r="M21" s="53">
+        <v>255</v>
+      </c>
+      <c r="N21" s="55">
+        <v>124</v>
+      </c>
+      <c r="O21" s="53">
+        <v>255</v>
+      </c>
+      <c r="P21" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="54">
+        <v>255</v>
+      </c>
+      <c r="R21" s="54">
+        <v>255</v>
+      </c>
+      <c r="S21" s="54">
+        <v>255</v>
+      </c>
+      <c r="T21" s="52">
+        <v>0</v>
+      </c>
+      <c r="U21" s="52">
+        <v>0</v>
+      </c>
+      <c r="V21" s="52">
+        <v>0</v>
+      </c>
+      <c r="W21" s="52">
+        <v>0</v>
+      </c>
+      <c r="X21" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP21" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="53">
+        <f t="shared" si="14"/>
+        <v>0.48627450980392156</v>
+      </c>
+      <c r="AR21" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS21" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT21" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU21" s="53">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AV21" s="53">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW21" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A22" s="51">
+        <v>0</v>
+      </c>
+      <c r="B22" s="51">
+        <v>0</v>
+      </c>
+      <c r="C22" s="51">
+        <v>0</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="51">
+        <v>0</v>
+      </c>
+      <c r="I22" s="51">
+        <v>0</v>
+      </c>
+      <c r="J22" s="51">
+        <v>0</v>
+      </c>
+      <c r="K22" s="51">
+        <v>0</v>
+      </c>
+      <c r="L22" s="53">
+        <v>255</v>
+      </c>
+      <c r="M22" s="53">
+        <v>255</v>
+      </c>
+      <c r="N22" s="53">
+        <v>255</v>
+      </c>
+      <c r="O22" s="53">
+        <v>255</v>
+      </c>
+      <c r="P22" s="54">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="54">
+        <v>255</v>
+      </c>
+      <c r="R22" s="52">
+        <v>0</v>
+      </c>
+      <c r="S22" s="52">
+        <v>0</v>
+      </c>
+      <c r="T22" s="52">
+        <v>0</v>
+      </c>
+      <c r="U22" s="52">
+        <v>0</v>
+      </c>
+      <c r="V22" s="52">
+        <v>0</v>
+      </c>
+      <c r="W22" s="52">
+        <v>0</v>
+      </c>
+      <c r="X22" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="53">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP22" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AR22" s="53">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AS22" s="53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AT22" s="53">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AU22" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A23" s="51">
+        <v>0</v>
+      </c>
+      <c r="B23" s="51">
+        <v>0</v>
+      </c>
+      <c r="C23" s="51">
+        <v>0</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
+        <v>0</v>
+      </c>
+      <c r="F23" s="51">
+        <v>0</v>
+      </c>
+      <c r="G23" s="51">
+        <v>0</v>
+      </c>
+      <c r="H23" s="51">
+        <v>0</v>
+      </c>
+      <c r="I23" s="51">
+        <v>0</v>
+      </c>
+      <c r="J23" s="51">
+        <v>0</v>
+      </c>
+      <c r="K23" s="51">
+        <v>0</v>
+      </c>
+      <c r="L23" s="51">
+        <v>0</v>
+      </c>
+      <c r="M23" s="51">
+        <v>0</v>
+      </c>
+      <c r="N23" s="51">
+        <v>0</v>
+      </c>
+      <c r="O23" s="51">
+        <v>0</v>
+      </c>
+      <c r="P23" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="52">
+        <v>0</v>
+      </c>
+      <c r="R23" s="52">
+        <v>0</v>
+      </c>
+      <c r="S23" s="52">
+        <v>0</v>
+      </c>
+      <c r="T23" s="52">
+        <v>0</v>
+      </c>
+      <c r="U23" s="52">
+        <v>0</v>
+      </c>
+      <c r="V23" s="52">
+        <v>0</v>
+      </c>
+      <c r="W23" s="52">
+        <v>0</v>
+      </c>
+      <c r="X23" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A24" s="51">
+        <v>0</v>
+      </c>
+      <c r="B24" s="51">
+        <v>0</v>
+      </c>
+      <c r="C24" s="51">
+        <v>0</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0</v>
+      </c>
+      <c r="F24" s="51">
+        <v>0</v>
+      </c>
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
+        <v>0</v>
+      </c>
+      <c r="I24" s="51">
+        <v>0</v>
+      </c>
+      <c r="J24" s="51">
+        <v>0</v>
+      </c>
+      <c r="K24" s="51">
+        <v>0</v>
+      </c>
+      <c r="L24" s="51">
+        <v>0</v>
+      </c>
+      <c r="M24" s="51">
+        <v>0</v>
+      </c>
+      <c r="N24" s="51">
+        <v>0</v>
+      </c>
+      <c r="O24" s="51">
+        <v>0</v>
+      </c>
+      <c r="P24" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="52">
+        <v>0</v>
+      </c>
+      <c r="R24" s="52">
+        <v>0</v>
+      </c>
+      <c r="S24" s="52">
+        <v>0</v>
+      </c>
+      <c r="T24" s="52">
+        <v>0</v>
+      </c>
+      <c r="U24" s="52">
+        <v>0</v>
+      </c>
+      <c r="V24" s="52">
+        <v>0</v>
+      </c>
+      <c r="W24" s="52">
+        <v>0</v>
+      </c>
+      <c r="X24" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A25" s="51">
+        <v>0</v>
+      </c>
+      <c r="B25" s="51">
+        <v>0</v>
+      </c>
+      <c r="C25" s="51">
+        <v>0</v>
+      </c>
+      <c r="D25" s="51">
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0</v>
+      </c>
+      <c r="G25" s="51">
+        <v>0</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0</v>
+      </c>
+      <c r="I25" s="51">
+        <v>0</v>
+      </c>
+      <c r="J25" s="51">
+        <v>0</v>
+      </c>
+      <c r="K25" s="51">
+        <v>0</v>
+      </c>
+      <c r="L25" s="51">
+        <v>0</v>
+      </c>
+      <c r="M25" s="51">
+        <v>0</v>
+      </c>
+      <c r="N25" s="51">
+        <v>0</v>
+      </c>
+      <c r="O25" s="51">
+        <v>0</v>
+      </c>
+      <c r="P25" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="52">
+        <v>0</v>
+      </c>
+      <c r="R25" s="52">
+        <v>0</v>
+      </c>
+      <c r="S25" s="52">
+        <v>0</v>
+      </c>
+      <c r="T25" s="52">
+        <v>0</v>
+      </c>
+      <c r="U25" s="52">
+        <v>0</v>
+      </c>
+      <c r="V25" s="52">
+        <v>0</v>
+      </c>
+      <c r="W25" s="52">
+        <v>0</v>
+      </c>
+      <c r="X25" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS25" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX25" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA25" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB25" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A26" s="51">
+        <v>0</v>
+      </c>
+      <c r="B26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51">
+        <v>0</v>
+      </c>
+      <c r="N26" s="51">
+        <v>0</v>
+      </c>
+      <c r="O26" s="51">
+        <v>0</v>
+      </c>
+      <c r="P26" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>0</v>
+      </c>
+      <c r="R26" s="52">
+        <v>0</v>
+      </c>
+      <c r="S26" s="52">
+        <v>0</v>
+      </c>
+      <c r="T26" s="52">
+        <v>0</v>
+      </c>
+      <c r="U26" s="52">
+        <v>0</v>
+      </c>
+      <c r="V26" s="52">
+        <v>0</v>
+      </c>
+      <c r="W26" s="52">
+        <v>0</v>
+      </c>
+      <c r="X26" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A27" s="51">
+        <v>0</v>
+      </c>
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="C27" s="51">
+        <v>0</v>
+      </c>
+      <c r="D27" s="51">
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <v>0</v>
+      </c>
+      <c r="F27" s="51">
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
+        <v>0</v>
+      </c>
+      <c r="I27" s="51">
+        <v>0</v>
+      </c>
+      <c r="J27" s="51">
+        <v>0</v>
+      </c>
+      <c r="K27" s="51">
+        <v>0</v>
+      </c>
+      <c r="L27" s="51">
+        <v>0</v>
+      </c>
+      <c r="M27" s="51">
+        <v>0</v>
+      </c>
+      <c r="N27" s="51">
+        <v>0</v>
+      </c>
+      <c r="O27" s="51">
+        <v>0</v>
+      </c>
+      <c r="P27" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>0</v>
+      </c>
+      <c r="R27" s="52">
+        <v>0</v>
+      </c>
+      <c r="S27" s="52">
+        <v>0</v>
+      </c>
+      <c r="T27" s="52">
+        <v>0</v>
+      </c>
+      <c r="U27" s="52">
+        <v>0</v>
+      </c>
+      <c r="V27" s="52">
+        <v>0</v>
+      </c>
+      <c r="W27" s="52">
+        <v>0</v>
+      </c>
+      <c r="X27" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB27" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A28" s="51">
+        <v>0</v>
+      </c>
+      <c r="B28" s="51">
+        <v>0</v>
+      </c>
+      <c r="C28" s="51">
+        <v>0</v>
+      </c>
+      <c r="D28" s="51">
+        <v>0</v>
+      </c>
+      <c r="E28" s="51">
+        <v>0</v>
+      </c>
+      <c r="F28" s="51">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
+        <v>0</v>
+      </c>
+      <c r="H28" s="51">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
+        <v>0</v>
+      </c>
+      <c r="J28" s="51">
+        <v>0</v>
+      </c>
+      <c r="K28" s="51">
+        <v>0</v>
+      </c>
+      <c r="L28" s="51">
+        <v>0</v>
+      </c>
+      <c r="M28" s="51">
+        <v>0</v>
+      </c>
+      <c r="N28" s="51">
+        <v>0</v>
+      </c>
+      <c r="O28" s="51">
+        <v>0</v>
+      </c>
+      <c r="P28" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>0</v>
+      </c>
+      <c r="R28" s="52">
+        <v>0</v>
+      </c>
+      <c r="S28" s="52">
+        <v>0</v>
+      </c>
+      <c r="T28" s="52">
+        <v>0</v>
+      </c>
+      <c r="U28" s="52">
+        <v>0</v>
+      </c>
+      <c r="V28" s="52">
+        <v>0</v>
+      </c>
+      <c r="W28" s="52">
+        <v>0</v>
+      </c>
+      <c r="X28" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="53">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="53">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="53">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="53">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="53">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="17.25" thickBot="1"/>
+    <row r="32" spans="1:57" ht="17.25" thickBot="1">
+      <c r="A32" s="44">
+        <v>0</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A33" s="44">
+        <v>0</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A34" s="44">
+        <v>0</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="70"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="77"/>
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="79"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="77"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="83"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="77"/>
+      <c r="AT34" s="84"/>
+      <c r="AU34" s="84"/>
+      <c r="AV34" s="77"/>
+      <c r="AW34" s="77"/>
+      <c r="AX34" s="84"/>
+      <c r="AY34" s="84"/>
+      <c r="AZ34" s="77"/>
+      <c r="BA34" s="77"/>
+      <c r="BB34" s="84"/>
+      <c r="BC34" s="84"/>
+      <c r="BD34" s="77"/>
+      <c r="BE34" s="77"/>
+      <c r="BF34" s="78"/>
+      <c r="BG34" s="84"/>
+      <c r="BH34" s="77"/>
+      <c r="BI34" s="77"/>
+      <c r="BJ34" s="84"/>
+      <c r="BK34" s="77"/>
+      <c r="BL34" s="77"/>
+      <c r="BM34" s="77"/>
+      <c r="BN34" s="78"/>
+      <c r="BO34" s="79"/>
+      <c r="BP34" s="84"/>
+      <c r="BQ34" s="78"/>
+      <c r="BR34" s="79"/>
+      <c r="BS34" s="77"/>
+      <c r="BT34" s="77"/>
+      <c r="BU34" s="77"/>
+      <c r="BV34" s="77"/>
+      <c r="BW34" s="84"/>
+      <c r="BX34" s="78"/>
+      <c r="BY34" s="84"/>
+      <c r="BZ34" s="77"/>
+      <c r="CA34" s="77"/>
+      <c r="CB34" s="77"/>
+    </row>
+    <row r="35" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A35" s="44">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A36" s="44">
+        <v>0</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="70"/>
+    </row>
+    <row r="37" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A37" s="44">
+        <v>0</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="70"/>
+    </row>
+    <row r="38" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A38" s="44">
+        <v>0</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="70"/>
+    </row>
+    <row r="39" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A39" s="44">
+        <v>0</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="76"/>
+    </row>
+    <row r="40" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A40" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="77"/>
+    </row>
+    <row r="41" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A41" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="77"/>
+    </row>
+    <row r="42" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A42" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="78"/>
+    </row>
+    <row r="43" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A43" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="79"/>
+    </row>
+    <row r="44" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A44" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="80"/>
+    </row>
+    <row r="45" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A45" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="81"/>
+    </row>
+    <row r="46" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A46" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="77"/>
+    </row>
+    <row r="47" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A47" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="77"/>
+    </row>
+    <row r="48" spans="1:80" ht="17.25" thickBot="1">
+      <c r="A48" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="77"/>
+    </row>
+    <row r="49" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A49" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="78"/>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A50" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="82"/>
+    </row>
+    <row r="51" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A51" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="79"/>
+    </row>
+    <row r="52" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A52" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="77"/>
+    </row>
+    <row r="53" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A53" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="79"/>
+    </row>
+    <row r="54" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A54" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="83"/>
+    </row>
+    <row r="55" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A55" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="77"/>
+    </row>
+    <row r="56" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A56" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="77"/>
+    </row>
+    <row r="57" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A57" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="78"/>
+    </row>
+    <row r="58" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A58" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="79"/>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A59" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="77"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A60" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="77"/>
+    </row>
+    <row r="61" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A61" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="79"/>
+    </row>
+    <row r="62" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A62" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="84"/>
+    </row>
+    <row r="63" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A63" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="77"/>
+    </row>
+    <row r="64" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A64" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="77"/>
+    </row>
+    <row r="65" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A65" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="78"/>
+    </row>
+    <row r="66" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A66" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="83"/>
+    </row>
+    <row r="67" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A67" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="77"/>
+    </row>
+    <row r="68" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A68" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="77"/>
+    </row>
+    <row r="69" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A69" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="84"/>
+    </row>
+    <row r="70" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A70" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="84"/>
+    </row>
+    <row r="71" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A71" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="77"/>
+    </row>
+    <row r="72" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A72" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="77"/>
+    </row>
+    <row r="73" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A73" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="84"/>
+    </row>
+    <row r="74" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A74" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="84"/>
+    </row>
+    <row r="75" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A75" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="77"/>
+    </row>
+    <row r="76" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A76" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="77"/>
+    </row>
+    <row r="77" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A77" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="84"/>
+    </row>
+    <row r="78" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A78" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="84"/>
+    </row>
+    <row r="79" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A79" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="77"/>
+    </row>
+    <row r="80" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A80" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="77"/>
+    </row>
+    <row r="81" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A81" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="78"/>
+    </row>
+    <row r="82" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A82" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="84"/>
+    </row>
+    <row r="83" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A83" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="77"/>
+    </row>
+    <row r="84" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A84" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="77"/>
+    </row>
+    <row r="85" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A85" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="84"/>
+    </row>
+    <row r="86" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A86" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="77"/>
+    </row>
+    <row r="87" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A87" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="77"/>
+    </row>
+    <row r="88" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A88" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="77"/>
+    </row>
+    <row r="89" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A89" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="78"/>
+    </row>
+    <row r="90" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A90" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="79"/>
+    </row>
+    <row r="91" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A91" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="84"/>
+    </row>
+    <row r="92" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A92" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="78"/>
+    </row>
+    <row r="93" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A93" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="79"/>
+    </row>
+    <row r="94" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A94" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="77"/>
+    </row>
+    <row r="95" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A95" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="77"/>
+    </row>
+    <row r="96" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A96" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="77"/>
+    </row>
+    <row r="97" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A97" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="77"/>
+    </row>
+    <row r="98" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A98" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="84"/>
+    </row>
+    <row r="99" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A99" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="78"/>
+    </row>
+    <row r="100" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A100" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="84"/>
+    </row>
+    <row r="101" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A101" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="77"/>
+    </row>
+    <row r="102" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A102" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="77"/>
+    </row>
+    <row r="103" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A103" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="77"/>
+    </row>
+    <row r="104" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A104" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A105" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A106" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A107" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A108" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A109" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A110" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A111" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A112" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A113" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A114" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A115" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A116" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A117" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A118" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A119" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A120" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A121" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A122" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A123" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A124" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A125" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A126" s="47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A127" s="47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A128" s="47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A129" s="47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A130" s="47">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A131" s="48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A132" s="48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A133" s="48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A134" s="48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A135" s="48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A136" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A137" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A138" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A139" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A140" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A141" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A142" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A143" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A147" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A148" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A149" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A150" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A151" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A152" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A153" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A154" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A155" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A156" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A157" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A158" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A159" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A160" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A161" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A162" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A163" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A164" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A165" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A166" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A167" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A168" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A169" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A170" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A171" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A172" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A173" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A174" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="17.25" thickBot="1">
+      <c r="A175" s="50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67FDC23-06BC-4968-81B0-E1B757CF44DC}">
   <dimension ref="B2:X37"/>
@@ -6452,13 +13844,13 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -6818,13 +14210,13 @@
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="T22" s="28" t="s">
+      <c r="T22" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
     </row>
     <row r="23" spans="2:24">
       <c r="R23" s="14" t="s">
@@ -6941,13 +14333,13 @@
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="T31" s="28" t="s">
+      <c r="T31" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
     </row>
     <row r="32" spans="2:24">
       <c r="R32" s="14" t="s">
@@ -11931,8 +19323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E35917-F184-4AF7-8281-D8C7F8F57816}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12057,436 +19449,159 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094C0037-AC5B-487B-BCF8-999965EA532C}">
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F78CEA8-5975-4C84-8FED-21999E477B5E}">
+  <dimension ref="D4:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="40"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="10" t="s">
+    <row r="4" spans="4:14">
+      <c r="F4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2" s="13">
-        <v>166</v>
-      </c>
-      <c r="C2" s="13">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1">
-      <c r="B3" s="13">
-        <v>168</v>
-      </c>
-      <c r="C3" s="13">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1">
-      <c r="B4" s="13">
-        <v>170</v>
-      </c>
-      <c r="C4" s="13">
-        <v>50</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="39">
-        <f>$B$7-B2</f>
-        <v>4</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="39">
-        <f>C2-$C$7</f>
-        <v>26.939999999999998</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="13">
-        <v>172</v>
-      </c>
-      <c r="C5" s="13">
-        <v>70</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31">
-        <f t="shared" ref="G5:G8" si="0">$B$7-B3</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31">
-        <f t="shared" ref="I5:I8" si="1">C3-$C$7</f>
-        <v>-3.0600000000000023</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="13">
-        <v>174</v>
-      </c>
-      <c r="C6" s="13">
-        <v>45.3</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31">
-        <f t="shared" si="1"/>
-        <v>-13.060000000000002</v>
-      </c>
-      <c r="L6">
-        <f>_xlfn.VAR.P(B2:B6)</f>
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <f>L6^0.5</f>
-        <v>2.8284271247461903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <f>SUM(B2:B6)/5</f>
-        <v>170</v>
-      </c>
-      <c r="C7">
-        <f>SUM(C2:C6)/5</f>
-        <v>63.06</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31">
-        <f t="shared" si="1"/>
-        <v>6.9399999999999977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8">
-        <f>COUNT(B2:B6)</f>
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <f>COUNT(C2:C6)</f>
-        <v>5</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33">
-        <f t="shared" si="1"/>
-        <v>-17.760000000000005</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1">
-      <c r="F9" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9">
-        <f>_xlfn.VAR.S(B2:B6)</f>
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9">
-        <f>L9^0.5</f>
-        <v>3.1622776601683795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31">
-        <f>G4*I4</f>
-        <v>107.75999999999999</v>
-      </c>
-      <c r="I10" s="34">
-        <f>G4^2</f>
-        <v>16</v>
-      </c>
-      <c r="J10" s="34">
-        <f>I4^2</f>
-        <v>725.76359999999988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
-        <f t="shared" ref="G11:G14" si="2">G5*I5</f>
-        <v>-6.1200000000000045</v>
-      </c>
-      <c r="I11" s="34">
-        <f>G5^2</f>
-        <v>4</v>
-      </c>
-      <c r="J11" s="34">
-        <f t="shared" ref="J11:J13" si="3">I5^2</f>
-        <v>9.3636000000000141</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12">
-        <v>70</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <f>G6^2</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <f t="shared" si="3"/>
-        <v>170.56360000000006</v>
-      </c>
-      <c r="L12" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12">
-        <f>J16/5</f>
-        <v>253.85440000000003</v>
-      </c>
-      <c r="P12">
-        <f>M12^0.5</f>
-        <v>15.93280891745081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="F13" s="30"/>
-      <c r="G13" s="31">
-        <f t="shared" si="2"/>
-        <v>-13.879999999999995</v>
-      </c>
-      <c r="I13" s="34">
-        <f>G7^2</f>
-        <v>4</v>
-      </c>
-      <c r="J13" s="34">
-        <f t="shared" si="3"/>
-        <v>48.163599999999967</v>
-      </c>
-      <c r="M13">
-        <f>_xlfn.VAR.P(C2:C6)</f>
-        <v>253.85439999999943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1">
-      <c r="F14" s="30"/>
-      <c r="G14" s="31">
-        <f t="shared" si="2"/>
-        <v>71.04000000000002</v>
-      </c>
-      <c r="I14" s="34">
-        <f>G8^2</f>
-        <v>16</v>
-      </c>
-      <c r="J14" s="34">
-        <f>I8^2</f>
-        <v>315.41760000000016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1">
-      <c r="F15" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="39">
-        <f>SUM(G10:G14)</f>
-        <v>158.80000000000001</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>99</v>
+      <c r="I4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14">
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="4:14">
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="4:14">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="4:14">
+      <c r="F9" s="26"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="4:14">
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14">
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15">
-        <f>J16/4</f>
-        <v>317.31800000000004</v>
-      </c>
-      <c r="P15">
-        <f>M15^0.5</f>
-        <v>17.813421905967424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="42">
-        <f>G15/5</f>
-        <v>31.76</v>
-      </c>
-      <c r="I16" s="35">
-        <f>SUM(I10:I14)</f>
-        <v>40</v>
-      </c>
-      <c r="J16" s="35">
-        <f>SUM(J10:J14)</f>
-        <v>1269.2720000000002</v>
-      </c>
-      <c r="M16">
-        <f>_xlfn.VAR.S(C2:C6)</f>
-        <v>317.3179999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="6:13" ht="17.25" thickBot="1">
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13" ht="17.25" thickBot="1">
-      <c r="G18">
-        <f>_xlfn.COVARIANCE.P(B2:B6,C2:C6)</f>
-        <v>-31.76</v>
-      </c>
-      <c r="I18" s="36">
-        <f>I16*J16</f>
-        <v>50770.880000000005</v>
-      </c>
-      <c r="J18" s="36">
-        <f>I18^(0.5)</f>
-        <v>225.32394457757925</v>
-      </c>
-    </row>
-    <row r="19" spans="6:13" ht="17.25" thickBot="1">
-      <c r="G19">
-        <f>_xlfn.COVARIANCE.S(B2:B6,C2:C6)</f>
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="L19" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="6:13" ht="17.25" thickBot="1">
-      <c r="I20" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="37">
-        <f>G15/J18</f>
-        <v>0.70476309252310743</v>
-      </c>
-      <c r="L20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13">
-      <c r="M21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13">
-      <c r="L22" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22">
-        <f>G19/(P9*P15)</f>
-        <v>-0.70476309252310732</v>
-      </c>
-    </row>
-    <row r="23" spans="6:13">
-      <c r="M23">
-        <f>CORREL(B2:B6,C2:C6)</f>
-        <v>-0.70476309252310732</v>
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/수학기초개념학습.xlsx
+++ b/수학기초개념학습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C3FDE8-47BF-47D4-A169-9A90B798F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DEEC2-F615-4B29-90EB-B3FCF243CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="이미지정규화" sheetId="12" r:id="rId12"/>
     <sheet name="이미지좌표" sheetId="13" r:id="rId13"/>
     <sheet name="연산자" sheetId="14" r:id="rId14"/>
+    <sheet name="데이터분석기초_정규화표준화" sheetId="15" r:id="rId15"/>
+    <sheet name="영상히스토그램" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="173">
   <si>
     <t>거래번호</t>
   </si>
@@ -746,6 +749,62 @@
     <t>| 연산</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>정규화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>편차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토그램</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>equalization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>평활화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>h정규화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>h누적합정규화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>h누적정규화*7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1347,7 +1406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1614,6 +1673,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6942,7 +7004,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14004,7 +14066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A00DA8E-1CAD-4BFC-9890-724FC2DEB2FF}">
   <dimension ref="B2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -14189,6 +14251,895 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845E5515-611A-4E1C-A98C-8755B7A2B786}">
+  <dimension ref="B3:V21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="13">
+        <v>166</v>
+      </c>
+      <c r="C4">
+        <f>B4-$E$10</f>
+        <v>-4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>163</v>
+      </c>
+      <c r="U4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="13">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C8" si="0">B5-$E$10</f>
+        <v>-2</v>
+      </c>
+      <c r="T5">
+        <f>MIN(S6:S10)</f>
+        <v>45.3</v>
+      </c>
+      <c r="U5">
+        <f>MAX(S6:S10)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="13">
+        <v>170</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="13">
+        <v>166</v>
+      </c>
+      <c r="P6">
+        <f>(O6-$O$6)/($O$10-$O$6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>90</v>
+      </c>
+      <c r="T6">
+        <f>(S6-$T$5)/($U$5-$T$5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="13">
+        <v>172</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="13">
+        <v>168</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P10" si="1">(O7-$O$6)/($O$10-$O$6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="13">
+        <v>60</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T10" si="2">(S7-$T$5)/($U$5-$T$5)</f>
+        <v>0.32885906040268459</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="13">
+        <v>174</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="13">
+        <v>170</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="13">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0.10514541387024615</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="13">
+        <v>172</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="S9" s="13">
+        <v>70</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0.55257270693512306</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="E10">
+        <f>SUM(B4:B8)/5</f>
+        <v>170</v>
+      </c>
+      <c r="F10">
+        <f>C4^2+C5^2+C6^2+C7^2+C8^2</f>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <f>F10^(0.5)</f>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="O10" s="13">
+        <v>174</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>45.3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="L11">
+        <f>(B4-$E$10)/$K$12</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <f>C4/$G$10</f>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="J12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12">
+        <f>B8-B4</f>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L15" si="3">(B5-$E$10)/$K$12</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="4">C5/$G$10</f>
+        <v>-0.31622776601683794</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>160</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="13">
+        <v>166</v>
+      </c>
+      <c r="P15">
+        <f>O15-$E$10</f>
+        <v>-4</v>
+      </c>
+      <c r="Q15">
+        <f>P15/$N$19</f>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="S15" s="13">
+        <v>90</v>
+      </c>
+      <c r="T15">
+        <f>S15-$S$20</f>
+        <v>26.939999999999998</v>
+      </c>
+      <c r="V15">
+        <f>(S15-$S$20)/$S$21</f>
+        <v>1.6908506302672919</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="O16" s="13">
+        <v>168</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P19" si="5">O16-$E$10</f>
+        <v>-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q19" si="6">P16/$N$19</f>
+        <v>-0.31622776601683794</v>
+      </c>
+      <c r="S16" s="13">
+        <v>60</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T19" si="7">S16-$S$20</f>
+        <v>-3.0600000000000023</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ref="V16:V19" si="8">(S16-$S$20)/$S$21</f>
+        <v>-0.19205653038670814</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="O17" s="13">
+        <v>170</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <v>50</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>-13.060000000000002</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="8"/>
+        <v>-0.81969225060470818</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" s="13">
+        <v>172</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="S18" s="13">
+        <v>70</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>6.9399999999999977</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="8"/>
+        <v>0.43557918983129185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="N19">
+        <f>G10</f>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="O19" s="13">
+        <v>174</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="S19" s="13">
+        <v>45.3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>-17.760000000000005</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>-1.1146810391071684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="R20" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGE(S15:S19)</f>
+        <v>63.06</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>218</v>
+      </c>
+      <c r="D21">
+        <v>107</v>
+      </c>
+      <c r="E21">
+        <f>B21-D21</f>
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <f>C21-D21</f>
+        <v>111</v>
+      </c>
+      <c r="H21">
+        <f>E21/F21</f>
+        <v>0.38738738738738737</v>
+      </c>
+      <c r="I21">
+        <f>H21*255</f>
+        <v>98.783783783783775</v>
+      </c>
+      <c r="R21" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21">
+        <f>_xlfn.STDEV.P(S15:S19)</f>
+        <v>15.932808917450791</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A167A-8E8C-4227-A7E0-D9AB84765372}">
+  <dimension ref="B3:V14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="9" width="7.75" customWidth="1"/>
+    <col min="13" max="16" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" s="28" customFormat="1">
+      <c r="B3" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="33" customHeight="1">
+      <c r="M4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="39" customHeight="1">
+      <c r="B5" s="89">
+        <v>1</v>
+      </c>
+      <c r="C5" s="89">
+        <v>2</v>
+      </c>
+      <c r="D5" s="89">
+        <v>2</v>
+      </c>
+      <c r="E5" s="89">
+        <v>2</v>
+      </c>
+      <c r="F5" s="89">
+        <v>1</v>
+      </c>
+      <c r="G5" s="89">
+        <v>1</v>
+      </c>
+      <c r="H5" s="89">
+        <v>2</v>
+      </c>
+      <c r="I5" s="89">
+        <v>0</v>
+      </c>
+      <c r="L5" s="89">
+        <v>0</v>
+      </c>
+      <c r="M5" s="89">
+        <f>COUNTIF($B$5:$I$12,L5)</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="89">
+        <f>M5/(SUM($M$5:$M$12))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O5" s="89">
+        <f>SUM($N$5:N5)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="P5" s="89">
+        <f>O5*7</f>
+        <v>0.21875</v>
+      </c>
+      <c r="Q5" s="89">
+        <f>ROUND(P5,2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="2:22" ht="39" customHeight="1">
+      <c r="B6" s="89">
+        <v>2</v>
+      </c>
+      <c r="C6" s="89">
+        <v>6</v>
+      </c>
+      <c r="D6" s="89">
+        <v>7</v>
+      </c>
+      <c r="E6" s="89">
+        <v>6</v>
+      </c>
+      <c r="F6" s="89">
+        <v>6</v>
+      </c>
+      <c r="G6" s="89">
+        <v>4</v>
+      </c>
+      <c r="H6" s="89">
+        <v>3</v>
+      </c>
+      <c r="I6" s="89">
+        <v>0</v>
+      </c>
+      <c r="L6" s="89">
+        <v>1</v>
+      </c>
+      <c r="M6" s="89">
+        <f t="shared" ref="M6:M12" si="0">COUNTIF($B$5:$I$12,L6)</f>
+        <v>12</v>
+      </c>
+      <c r="N6" s="89">
+        <f t="shared" ref="N6:N12" si="1">M6/(SUM($M$5:$M$12))</f>
+        <v>0.1875</v>
+      </c>
+      <c r="O6" s="89">
+        <f>SUM($N$5:N6)</f>
+        <v>0.21875</v>
+      </c>
+      <c r="P6" s="89">
+        <f t="shared" ref="P6:P12" si="2">O6*7</f>
+        <v>1.53125</v>
+      </c>
+      <c r="Q6" s="89">
+        <f t="shared" ref="Q6:Q12" si="3">ROUND(P6,2)</f>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="39" customHeight="1">
+      <c r="B7" s="89">
+        <v>2</v>
+      </c>
+      <c r="C7" s="89">
+        <v>6</v>
+      </c>
+      <c r="D7" s="89">
+        <v>7</v>
+      </c>
+      <c r="E7" s="89">
+        <v>6</v>
+      </c>
+      <c r="F7" s="89">
+        <v>6</v>
+      </c>
+      <c r="G7" s="89">
+        <v>4</v>
+      </c>
+      <c r="H7" s="89">
+        <v>3</v>
+      </c>
+      <c r="I7" s="89">
+        <v>2</v>
+      </c>
+      <c r="L7" s="89">
+        <v>2</v>
+      </c>
+      <c r="M7" s="89">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N7" s="89">
+        <f t="shared" si="1"/>
+        <v>0.265625</v>
+      </c>
+      <c r="O7" s="89">
+        <f>SUM($N$5:N7)</f>
+        <v>0.484375</v>
+      </c>
+      <c r="P7" s="89">
+        <f t="shared" si="2"/>
+        <v>3.390625</v>
+      </c>
+      <c r="Q7" s="89">
+        <f t="shared" si="3"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="39" customHeight="1">
+      <c r="B8" s="89">
+        <v>2</v>
+      </c>
+      <c r="C8" s="89">
+        <v>5</v>
+      </c>
+      <c r="D8" s="89">
+        <v>6</v>
+      </c>
+      <c r="E8" s="89">
+        <v>6</v>
+      </c>
+      <c r="F8" s="89">
+        <v>6</v>
+      </c>
+      <c r="G8" s="89">
+        <v>4</v>
+      </c>
+      <c r="H8" s="89">
+        <v>3</v>
+      </c>
+      <c r="I8" s="89">
+        <v>2</v>
+      </c>
+      <c r="L8" s="89">
+        <v>3</v>
+      </c>
+      <c r="M8" s="89">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N8" s="89">
+        <f t="shared" si="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="O8" s="89">
+        <f>SUM($N$5:N8)</f>
+        <v>0.640625</v>
+      </c>
+      <c r="P8" s="89">
+        <f t="shared" si="2"/>
+        <v>4.484375</v>
+      </c>
+      <c r="Q8" s="89">
+        <f t="shared" si="3"/>
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="39" customHeight="1">
+      <c r="B9" s="89">
+        <v>2</v>
+      </c>
+      <c r="C9" s="89">
+        <v>5</v>
+      </c>
+      <c r="D9" s="89">
+        <v>6</v>
+      </c>
+      <c r="E9" s="89">
+        <v>6</v>
+      </c>
+      <c r="F9" s="89">
+        <v>5</v>
+      </c>
+      <c r="G9" s="89">
+        <v>5</v>
+      </c>
+      <c r="H9" s="89">
+        <v>3</v>
+      </c>
+      <c r="I9" s="89">
+        <v>2</v>
+      </c>
+      <c r="L9" s="89">
+        <v>4</v>
+      </c>
+      <c r="M9" s="89">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="89">
+        <f t="shared" si="1"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="O9" s="89">
+        <f>SUM($N$5:N9)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="P9" s="89">
+        <f t="shared" si="2"/>
+        <v>4.8125</v>
+      </c>
+      <c r="Q9" s="89">
+        <f t="shared" si="3"/>
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="39" customHeight="1">
+      <c r="B10" s="89">
+        <v>2</v>
+      </c>
+      <c r="C10" s="89">
+        <v>5</v>
+      </c>
+      <c r="D10" s="89">
+        <v>5</v>
+      </c>
+      <c r="E10" s="89">
+        <v>5</v>
+      </c>
+      <c r="F10" s="89">
+        <v>3</v>
+      </c>
+      <c r="G10" s="89">
+        <v>3</v>
+      </c>
+      <c r="H10" s="89">
+        <v>3</v>
+      </c>
+      <c r="I10" s="89">
+        <v>2</v>
+      </c>
+      <c r="L10" s="89">
+        <v>5</v>
+      </c>
+      <c r="M10" s="89">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="89">
+        <f t="shared" si="1"/>
+        <v>0.109375</v>
+      </c>
+      <c r="O10" s="89">
+        <f>SUM($N$5:N10)</f>
+        <v>0.796875</v>
+      </c>
+      <c r="P10" s="89">
+        <f t="shared" si="2"/>
+        <v>5.578125</v>
+      </c>
+      <c r="Q10" s="89">
+        <f t="shared" si="3"/>
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="39" customHeight="1">
+      <c r="B11" s="89">
+        <v>2</v>
+      </c>
+      <c r="C11" s="89">
+        <v>2</v>
+      </c>
+      <c r="D11" s="89">
+        <v>3</v>
+      </c>
+      <c r="E11" s="89">
+        <v>3</v>
+      </c>
+      <c r="F11" s="89">
+        <v>3</v>
+      </c>
+      <c r="G11" s="89">
+        <v>1</v>
+      </c>
+      <c r="H11" s="89">
+        <v>1</v>
+      </c>
+      <c r="I11" s="89">
+        <v>1</v>
+      </c>
+      <c r="L11" s="89">
+        <v>6</v>
+      </c>
+      <c r="M11" s="89">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N11" s="89">
+        <f t="shared" si="1"/>
+        <v>0.171875</v>
+      </c>
+      <c r="O11" s="89">
+        <f>SUM($N$5:N11)</f>
+        <v>0.96875</v>
+      </c>
+      <c r="P11" s="89">
+        <f t="shared" si="2"/>
+        <v>6.78125</v>
+      </c>
+      <c r="Q11" s="89">
+        <f t="shared" si="3"/>
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="39" customHeight="1">
+      <c r="B12" s="89">
+        <v>2</v>
+      </c>
+      <c r="C12" s="89">
+        <v>2</v>
+      </c>
+      <c r="D12" s="89">
+        <v>1</v>
+      </c>
+      <c r="E12" s="89">
+        <v>1</v>
+      </c>
+      <c r="F12" s="89">
+        <v>1</v>
+      </c>
+      <c r="G12" s="89">
+        <v>1</v>
+      </c>
+      <c r="H12" s="89">
+        <v>1</v>
+      </c>
+      <c r="I12" s="89">
+        <v>1</v>
+      </c>
+      <c r="L12" s="89">
+        <v>7</v>
+      </c>
+      <c r="M12" s="89">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="89">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O12" s="89">
+        <f>SUM($N$5:N12)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="89">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="89">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="33" customHeight="1"/>
+    <row r="14" spans="2:22" ht="33" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECB29AE-078A-4C14-9618-8456A98936E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/수학기초개념학습.xlsx
+++ b/수학기초개념학습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DEEC2-F615-4B29-90EB-B3FCF243CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313C7EE-2F44-4FDC-9435-D0C20B3E7262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="17" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,8 @@
     <sheet name="연산자" sheetId="14" r:id="rId14"/>
     <sheet name="데이터분석기초_정규화표준화" sheetId="15" r:id="rId15"/>
     <sheet name="영상히스토그램" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId17"/>
+    <sheet name="정규분포" sheetId="17" r:id="rId17"/>
+    <sheet name="영상처리" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="189">
   <si>
     <t>거래번호</t>
   </si>
@@ -805,12 +806,65 @@
     <t>h누적정규화*7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>구간</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률분포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적확률분포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모폴로지</t>
+  </si>
+  <si>
+    <t>팽창</t>
+  </si>
+  <si>
+    <t>: 구조 요소의 중심을 1인 화소에 씌운 다음 구조 요소에 해당하는 모든 화소를 1로 바꿈</t>
+  </si>
+  <si>
+    <t>침식</t>
+  </si>
+  <si>
+    <t>: 구조 요소의 중심을 1인 화소에 씌운 다음 구조 요소에 해당하는 모든 화소가 1인 경우에 1을 유지하고 그렇지 않으면 0으로 바꿈</t>
+  </si>
+  <si>
+    <t>구조 요소(structuring element)</t>
+  </si>
+  <si>
+    <t>중심화소</t>
+  </si>
+  <si>
+    <t>팽창 적용</t>
+  </si>
+  <si>
+    <t>dilation</t>
+  </si>
+  <si>
+    <t>침식 적용</t>
+  </si>
+  <si>
+    <t>erosion</t>
+  </si>
+  <si>
+    <t>팽창</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>침식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,8 +931,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF504B4B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1063,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,11 +1756,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2696,6 +2838,1324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>정규분포!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>누적확률분포</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>정규분포!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0000000000000102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>정규분포!$C$2:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1.3498980316300933E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8658133003840378E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5551303304279312E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4669738030406643E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6611880237187476E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2096653257761331E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1975359245961311E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0724110021675811E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3903447513498597E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7864420562816546E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2750131948179191E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.87165598160018E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5930319112925789E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4565462758543041E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4799291699557967E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6807201268858057E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0756659233771053E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6800484585610316E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11506967022170828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13566606094638264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15865525393145699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1840601253467595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21185539858339661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24196365222307298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27425311775007355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30853753872598688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34457825838967576</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38208857781104733</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42074029056089696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46017216272297101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.53982783727702899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57925970943910299</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61791142218895267</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65542174161032429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69146246127401312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72574688224992645</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.75803634777692697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78814460141660336</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.81593987465324047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84134474606854304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.86433393905361733</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88493032977829178</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9031995154143897</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.91924334076622893</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93319279873114191</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94520070830044201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95543453724145699</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96406968088707423</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.97128344018399815</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.97724986805182079</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.98213557943718344</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98609655248650141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.98927588997832416</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99180246407540384</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99379033467422406</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99533881197628127</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99653302619695938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99744486966957213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99813418669961607</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9986501019683699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0B9-4E0F-A47F-565547C45D8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227548959"/>
+        <c:axId val="227549375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227548959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227549375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227549375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227548959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>정규분포!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>확률분포</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>정규분포!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5000000000000102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0000000000000102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>정규분포!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>4.4318484119380075E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9525324197758538E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9154515829799686E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0420934814422592E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3582969233685613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.752830049356854E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2394530294842899E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8327037741601186E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5474592846231424E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3983595980427191E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3990966513188063E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5615814774676595E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8950158300894149E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4049077376886947E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11092083467945554</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12951759566589174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14972746563574488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17136859204780736</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19418605498321295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21785217703255053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24197072451914337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26608524989875482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28969155276148273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31225393336676127</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33322460289179967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35206532676429952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36827014030332333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38138781546052414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39104269397545588</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39695254747701181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39695254747701181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.39104269397545588</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38138781546052414</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36827014030332333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35206532676429952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33322460289179967</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31225393336676127</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28969155276148273</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26608524989875482</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24197072451914337</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21785217703255053</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19418605498321295</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17136859204780736</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14972746563574488</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12951759566589174</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11092083467945554</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4049077376886947E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8950158300894149E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.5615814774676595E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.3990966513188063E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.3983595980427191E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5474592846231424E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8327037741601186E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2394530294842899E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7528300493568086E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3582969233685613E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0420934814422592E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.915451582979743E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9525324197756795E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.431848411937874E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0AE-4C8B-BCC5-371472612316}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225726927"/>
+        <c:axId val="225726511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225726927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225726511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225726511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225726927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2777,6 +4237,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3853,6 +5393,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6531,6 +9103,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA7FD31-32D8-4CE6-9BF5-5C43918B6CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1247D40C-1ADE-432F-A279-3A1E2EA98E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -14689,7 +17338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A167A-8E8C-4227-A7E0-D9AB84765372}">
   <dimension ref="B3:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -14728,398 +17377,398 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="39" customHeight="1">
-      <c r="B5" s="89">
+      <c r="B5" s="88">
         <v>1</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="88">
         <v>2</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="88">
         <v>2</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="88">
         <v>2</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="88">
         <v>1</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="88">
         <v>1</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="88">
         <v>2</v>
       </c>
-      <c r="I5" s="89">
-        <v>0</v>
-      </c>
-      <c r="L5" s="89">
-        <v>0</v>
-      </c>
-      <c r="M5" s="89">
+      <c r="I5" s="88">
+        <v>0</v>
+      </c>
+      <c r="L5" s="88">
+        <v>0</v>
+      </c>
+      <c r="M5" s="88">
         <f>COUNTIF($B$5:$I$12,L5)</f>
         <v>2</v>
       </c>
-      <c r="N5" s="89">
+      <c r="N5" s="88">
         <f>M5/(SUM($M$5:$M$12))</f>
         <v>3.125E-2</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="88">
         <f>SUM($N$5:N5)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="88">
         <f>O5*7</f>
         <v>0.21875</v>
       </c>
-      <c r="Q5" s="89">
+      <c r="Q5" s="88">
         <f>ROUND(P5,2)</f>
         <v>0.22</v>
       </c>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
     </row>
     <row r="6" spans="2:22" ht="39" customHeight="1">
-      <c r="B6" s="89">
+      <c r="B6" s="88">
         <v>2</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="88">
         <v>6</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="88">
         <v>7</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="88">
         <v>6</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="88">
         <v>6</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="88">
         <v>4</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="88">
         <v>3</v>
       </c>
-      <c r="I6" s="89">
-        <v>0</v>
-      </c>
-      <c r="L6" s="89">
+      <c r="I6" s="88">
+        <v>0</v>
+      </c>
+      <c r="L6" s="88">
         <v>1</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="88">
         <f t="shared" ref="M6:M12" si="0">COUNTIF($B$5:$I$12,L6)</f>
         <v>12</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N6" s="88">
         <f t="shared" ref="N6:N12" si="1">M6/(SUM($M$5:$M$12))</f>
         <v>0.1875</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="88">
         <f>SUM($N$5:N6)</f>
         <v>0.21875</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="88">
         <f t="shared" ref="P6:P12" si="2">O6*7</f>
         <v>1.53125</v>
       </c>
-      <c r="Q6" s="89">
+      <c r="Q6" s="88">
         <f t="shared" ref="Q6:Q12" si="3">ROUND(P6,2)</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="39" customHeight="1">
-      <c r="B7" s="89">
+      <c r="B7" s="88">
         <v>2</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="88">
         <v>6</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="88">
         <v>7</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="88">
         <v>6</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="88">
         <v>6</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="88">
         <v>4</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="88">
         <v>3</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="88">
         <v>2</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="88">
         <v>2</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="88">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="88">
         <f t="shared" si="1"/>
         <v>0.265625</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="88">
         <f>SUM($N$5:N7)</f>
         <v>0.484375</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="88">
         <f t="shared" si="2"/>
         <v>3.390625</v>
       </c>
-      <c r="Q7" s="89">
+      <c r="Q7" s="88">
         <f t="shared" si="3"/>
         <v>3.39</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="39" customHeight="1">
-      <c r="B8" s="89">
+      <c r="B8" s="88">
         <v>2</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="88">
         <v>5</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="88">
         <v>6</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="88">
         <v>6</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="88">
         <v>6</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="88">
         <v>4</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="88">
         <v>3</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="88">
         <v>2</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="88">
         <v>3</v>
       </c>
-      <c r="M8" s="89">
+      <c r="M8" s="88">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N8" s="89">
+      <c r="N8" s="88">
         <f t="shared" si="1"/>
         <v>0.15625</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="88">
         <f>SUM($N$5:N8)</f>
         <v>0.640625</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="88">
         <f t="shared" si="2"/>
         <v>4.484375</v>
       </c>
-      <c r="Q8" s="89">
+      <c r="Q8" s="88">
         <f t="shared" si="3"/>
         <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="39" customHeight="1">
-      <c r="B9" s="89">
+      <c r="B9" s="88">
         <v>2</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="88">
         <v>5</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="88">
         <v>6</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="88">
         <v>6</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="88">
         <v>5</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="88">
         <v>5</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="88">
         <v>3</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="88">
         <v>2</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L9" s="88">
         <v>4</v>
       </c>
-      <c r="M9" s="89">
+      <c r="M9" s="88">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="88">
         <f t="shared" si="1"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="O9" s="89">
+      <c r="O9" s="88">
         <f>SUM($N$5:N9)</f>
         <v>0.6875</v>
       </c>
-      <c r="P9" s="89">
+      <c r="P9" s="88">
         <f t="shared" si="2"/>
         <v>4.8125</v>
       </c>
-      <c r="Q9" s="89">
+      <c r="Q9" s="88">
         <f t="shared" si="3"/>
         <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="39" customHeight="1">
-      <c r="B10" s="89">
+      <c r="B10" s="88">
         <v>2</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="88">
         <v>5</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="88">
         <v>5</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="88">
         <v>5</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="88">
         <v>3</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="88">
         <v>3</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="88">
         <v>3</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="88">
         <v>2</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="88">
         <v>5</v>
       </c>
-      <c r="M10" s="89">
+      <c r="M10" s="88">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N10" s="88">
         <f t="shared" si="1"/>
         <v>0.109375</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="88">
         <f>SUM($N$5:N10)</f>
         <v>0.796875</v>
       </c>
-      <c r="P10" s="89">
+      <c r="P10" s="88">
         <f t="shared" si="2"/>
         <v>5.578125</v>
       </c>
-      <c r="Q10" s="89">
+      <c r="Q10" s="88">
         <f t="shared" si="3"/>
         <v>5.58</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="39" customHeight="1">
-      <c r="B11" s="89">
+      <c r="B11" s="88">
         <v>2</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="88">
         <v>2</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="88">
         <v>3</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="88">
         <v>3</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="88">
         <v>3</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="88">
         <v>1</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="88">
         <v>1</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="88">
         <v>1</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="88">
         <v>6</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="88">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N11" s="88">
         <f t="shared" si="1"/>
         <v>0.171875</v>
       </c>
-      <c r="O11" s="89">
+      <c r="O11" s="88">
         <f>SUM($N$5:N11)</f>
         <v>0.96875</v>
       </c>
-      <c r="P11" s="89">
+      <c r="P11" s="88">
         <f t="shared" si="2"/>
         <v>6.78125</v>
       </c>
-      <c r="Q11" s="89">
+      <c r="Q11" s="88">
         <f t="shared" si="3"/>
         <v>6.78</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="39" customHeight="1">
-      <c r="B12" s="89">
+      <c r="B12" s="88">
         <v>2</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="88">
         <v>2</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="88">
         <v>1</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <v>1</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="88">
         <v>1</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="88">
         <v>1</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="88">
         <v>1</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="88">
         <v>1</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L12" s="88">
         <v>7</v>
       </c>
-      <c r="M12" s="89">
+      <c r="M12" s="88">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="88">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="88">
         <f>SUM($N$5:N12)</f>
         <v>1</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="88">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q12" s="89">
+      <c r="Q12" s="88">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -15134,14 +17783,2492 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECB29AE-078A-4C14-9618-8456A98936E1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>-3</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.NORM.DIST(A2,0,1,)</f>
+        <v>4.4318484119380075E-3</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.NORM.DIST(A2,0,1,TRUE)</f>
+        <v>1.3498980316300933E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>-2.9</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B62" si="0">_xlfn.NORM.DIST(A3,0,1,)</f>
+        <v>5.9525324197758538E-3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C62" si="1">_xlfn.NORM.DIST(A3,0,1,TRUE)</f>
+        <v>1.8658133003840378E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>-2.8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>7.9154515829799686E-3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2.5551303304279312E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>-2.7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.0420934814422592E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.4669738030406643E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>-2.6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.3582969233685613E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>4.6611880237187476E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>-2.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.752830049356854E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>-2.4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.2394530294842899E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>8.1975359245961311E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.8327037741601186E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.0724110021675811E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>3.5474592846231424E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.3903447513498597E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>-2.1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4.3983595980427191E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.7864420562816546E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>5.3990966513188063E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.2750131948179191E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>-1.9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>6.5615814774676595E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2.87165598160018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>-1.8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>7.8950158300894149E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.5930319112925789E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>-1.7</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9.4049077376886947E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>4.4565462758543041E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>-1.6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.11092083467945554</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.4799291699557967E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>-1.5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.12951759566589174</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>6.6807201268858057E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>-1.4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.14972746563574488</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>8.0756659233771053E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>-1.3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.17136859204780736</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>9.6800484585610316E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-1.2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.19418605498321295</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.11506967022170828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.21785217703255053</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.13566606094638264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.24197072451914337</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.15865525393145699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>-0.9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.26608524989875482</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.1840601253467595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>-0.8</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.28969155276148273</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>-0.7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.31225393336676127</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.24196365222307298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>-0.6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.33322460289179967</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.27425311775007355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>-0.5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.30853753872598688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>-0.4</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.36827014030332333</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.34457825838967576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>-0.3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.38138781546052414</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.38208857781104733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>-0.2</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.39104269397545588</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.42074029056089696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>-0.1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.39695254747701181</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.46017216272297101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.39695254747701181</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.53982783727702899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>0.2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.39104269397545588</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.57925970943910299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>0.3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.38138781546052414</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.61791142218895267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>0.4</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.36827014030332333</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.65542174161032429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.69146246127401312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>0.6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.33322460289179967</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.72574688224992645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0.7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.31225393336676127</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.75803634777692697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.28969155276148273</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.78814460141660336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>0.9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.26608524989875482</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.81593987465324047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.24197072451914337</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.84134474606854304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.21785217703255053</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.86433393905361733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>1.2</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.19418605498321295</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.88493032977829178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1.3</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.17136859204780736</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.9031995154143897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>1.4</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.14972746563574488</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.91924334076622893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.12951759566589174</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.93319279873114191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>1.6</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.11092083467945554</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.94520070830044201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1.7</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>9.4049077376886947E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.95543453724145699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1.8</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>7.8950158300894149E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.96406968088707423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1.9</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>6.5615814774676595E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.97128344018399815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>5.3990966513188063E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.97724986805182079</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2.1</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4.3983595980427191E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.98213557943718344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3.5474592846231424E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.98609655248650141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2.8327037741601186E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.98927588997832416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2.4</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.2394530294842899E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.99180246407540384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2.5000000000000102</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.7528300493568086E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.99379033467422406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2.6</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1.3582969233685613E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.99533881197628127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2.7</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1.0420934814422592E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.99653302619695938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2.80000000000001</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>7.915451582979743E-3</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.99744486966957213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2.9000000000000101</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>5.9525324197756795E-3</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.99813418669961607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>3.0000000000000102</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>4.431848411937874E-3</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.9986501019683699</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE482B99-A4AA-4732-9E37-C6A85EC41F2A}">
+  <dimension ref="A2:BJ22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="9" width="6.125" customWidth="1"/>
+    <col min="11" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="21" width="5.375" customWidth="1"/>
+    <col min="24" max="31" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:62" s="28" customFormat="1">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
+      <c r="BJ2" s="91"/>
+    </row>
+    <row r="3" spans="1:62">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+    </row>
+    <row r="4" spans="1:62">
+      <c r="A4" s="93"/>
+      <c r="B4" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="101">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="93"/>
+      <c r="BC5" s="93"/>
+      <c r="BD5" s="93"/>
+      <c r="BE5" s="93"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="93"/>
+      <c r="BH5" s="93"/>
+      <c r="BI5" s="93"/>
+      <c r="BJ5" s="93"/>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="93"/>
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BI6" s="93"/>
+      <c r="BJ6" s="93"/>
+    </row>
+    <row r="7" spans="1:62">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="93"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="93"/>
+      <c r="BF7" s="93"/>
+      <c r="BG7" s="93"/>
+      <c r="BH7" s="93"/>
+      <c r="BI7" s="93"/>
+      <c r="BJ7" s="93"/>
+    </row>
+    <row r="8" spans="1:62">
+      <c r="A8" s="93"/>
+      <c r="B8" s="88">
+        <v>0</v>
+      </c>
+      <c r="C8" s="88">
+        <v>0</v>
+      </c>
+      <c r="D8" s="88">
+        <v>0</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="88">
+        <v>0</v>
+      </c>
+      <c r="I8" s="88">
+        <v>0</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="106">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="106">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="93"/>
+      <c r="BJ8" s="93"/>
+    </row>
+    <row r="9" spans="1:62">
+      <c r="A9" s="93"/>
+      <c r="B9" s="88">
+        <v>0</v>
+      </c>
+      <c r="C9" s="88">
+        <v>0</v>
+      </c>
+      <c r="D9" s="88">
+        <v>0</v>
+      </c>
+      <c r="E9" s="88">
+        <v>1</v>
+      </c>
+      <c r="F9" s="88">
+        <v>0</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+      <c r="H9" s="88">
+        <v>0</v>
+      </c>
+      <c r="I9" s="88">
+        <v>0</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="106">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="101">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="100">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="101">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="106">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="93"/>
+      <c r="BJ9" s="93"/>
+    </row>
+    <row r="10" spans="1:62">
+      <c r="A10" s="93"/>
+      <c r="B10" s="88">
+        <v>0</v>
+      </c>
+      <c r="C10" s="88">
+        <v>1</v>
+      </c>
+      <c r="D10" s="88">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88">
+        <v>1</v>
+      </c>
+      <c r="F10" s="88">
+        <v>1</v>
+      </c>
+      <c r="G10" s="88">
+        <v>1</v>
+      </c>
+      <c r="H10" s="88">
+        <v>0</v>
+      </c>
+      <c r="I10" s="88">
+        <v>0</v>
+      </c>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="106">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="101">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="100">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="101">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="100">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="101">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="106">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="93"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
+      <c r="BJ10" s="93"/>
+    </row>
+    <row r="11" spans="1:62">
+      <c r="A11" s="93"/>
+      <c r="B11" s="88">
+        <v>0</v>
+      </c>
+      <c r="C11" s="88">
+        <v>1</v>
+      </c>
+      <c r="D11" s="88">
+        <v>1</v>
+      </c>
+      <c r="E11" s="88">
+        <v>0</v>
+      </c>
+      <c r="F11" s="88">
+        <v>1</v>
+      </c>
+      <c r="G11" s="88">
+        <v>1</v>
+      </c>
+      <c r="H11" s="88">
+        <v>1</v>
+      </c>
+      <c r="I11" s="88">
+        <v>0</v>
+      </c>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="93"/>
+      <c r="AW11" s="93"/>
+      <c r="AX11" s="93"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="93"/>
+      <c r="BA11" s="93"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="93"/>
+      <c r="BE11" s="93"/>
+      <c r="BF11" s="93"/>
+      <c r="BG11" s="93"/>
+      <c r="BH11" s="93"/>
+      <c r="BI11" s="93"/>
+      <c r="BJ11" s="93"/>
+    </row>
+    <row r="12" spans="1:62">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="93"/>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="93"/>
+      <c r="BE12" s="93"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BI12" s="93"/>
+      <c r="BJ12" s="93"/>
+    </row>
+    <row r="13" spans="1:62" ht="23.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="93"/>
+      <c r="BF13" s="93"/>
+      <c r="BG13" s="93"/>
+      <c r="BH13" s="93"/>
+      <c r="BI13" s="93"/>
+      <c r="BJ13" s="93"/>
+    </row>
+    <row r="14" spans="1:62">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="93"/>
+      <c r="BF14" s="93"/>
+      <c r="BG14" s="93"/>
+      <c r="BH14" s="93"/>
+      <c r="BI14" s="93"/>
+      <c r="BJ14" s="93"/>
+    </row>
+    <row r="15" spans="1:62">
+      <c r="A15" s="93"/>
+      <c r="B15" s="88">
+        <v>0</v>
+      </c>
+      <c r="C15" s="88">
+        <v>0</v>
+      </c>
+      <c r="D15" s="88">
+        <v>0</v>
+      </c>
+      <c r="E15" s="88">
+        <v>0</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="88">
+        <v>0</v>
+      </c>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="88">
+        <v>0</v>
+      </c>
+      <c r="O15" s="88">
+        <v>0</v>
+      </c>
+      <c r="P15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="88">
+        <v>0</v>
+      </c>
+      <c r="R15" s="88">
+        <v>0</v>
+      </c>
+      <c r="S15" s="88">
+        <v>0</v>
+      </c>
+      <c r="T15" s="88">
+        <v>0</v>
+      </c>
+      <c r="U15" s="88">
+        <v>0</v>
+      </c>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="88">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="93"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="93"/>
+      <c r="BE15" s="93"/>
+      <c r="BF15" s="93"/>
+      <c r="BG15" s="93"/>
+      <c r="BH15" s="93"/>
+      <c r="BI15" s="93"/>
+      <c r="BJ15" s="93"/>
+    </row>
+    <row r="16" spans="1:62">
+      <c r="A16" s="93"/>
+      <c r="B16" s="88">
+        <v>0</v>
+      </c>
+      <c r="C16" s="88">
+        <v>0</v>
+      </c>
+      <c r="D16" s="98">
+        <v>1</v>
+      </c>
+      <c r="E16" s="99">
+        <v>1</v>
+      </c>
+      <c r="F16" s="98">
+        <v>1</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+      <c r="H16" s="88">
+        <v>0</v>
+      </c>
+      <c r="I16" s="88">
+        <v>0</v>
+      </c>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="88">
+        <v>0</v>
+      </c>
+      <c r="O16" s="88">
+        <v>0</v>
+      </c>
+      <c r="P16" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>0</v>
+      </c>
+      <c r="R16" s="100">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
+      </c>
+      <c r="T16" s="88">
+        <v>0</v>
+      </c>
+      <c r="U16" s="88">
+        <v>0</v>
+      </c>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="88">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+    </row>
+    <row r="17" spans="1:62">
+      <c r="A17" s="93"/>
+      <c r="B17" s="98">
+        <v>1</v>
+      </c>
+      <c r="C17" s="99">
+        <v>1</v>
+      </c>
+      <c r="D17" s="102">
+        <v>1</v>
+      </c>
+      <c r="E17" s="88">
+        <v>1</v>
+      </c>
+      <c r="F17" s="102">
+        <v>1</v>
+      </c>
+      <c r="G17" s="99">
+        <v>1</v>
+      </c>
+      <c r="H17" s="98">
+        <v>1</v>
+      </c>
+      <c r="I17" s="88">
+        <v>0</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="102">
+        <v>0</v>
+      </c>
+      <c r="O17" s="101">
+        <v>0</v>
+      </c>
+      <c r="P17" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="88">
+        <v>1</v>
+      </c>
+      <c r="R17" s="102">
+        <v>1</v>
+      </c>
+      <c r="S17" s="101">
+        <v>0</v>
+      </c>
+      <c r="T17" s="102">
+        <v>0</v>
+      </c>
+      <c r="U17" s="88">
+        <v>0</v>
+      </c>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="88">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="88">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="93"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="93"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="93"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="93"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+    </row>
+    <row r="18" spans="1:62">
+      <c r="A18" s="93"/>
+      <c r="B18" s="98">
+        <v>1</v>
+      </c>
+      <c r="C18" s="99">
+        <v>1</v>
+      </c>
+      <c r="D18" s="102">
+        <v>1</v>
+      </c>
+      <c r="E18" s="103">
+        <v>1</v>
+      </c>
+      <c r="F18" s="102">
+        <v>1</v>
+      </c>
+      <c r="G18" s="102">
+        <v>1</v>
+      </c>
+      <c r="H18" s="99">
+        <v>1</v>
+      </c>
+      <c r="I18" s="98">
+        <v>1</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="102">
+        <v>0</v>
+      </c>
+      <c r="O18" s="101">
+        <v>0</v>
+      </c>
+      <c r="P18" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="102">
+        <v>0</v>
+      </c>
+      <c r="R18" s="101">
+        <v>0</v>
+      </c>
+      <c r="S18" s="102">
+        <v>1</v>
+      </c>
+      <c r="T18" s="101">
+        <v>0</v>
+      </c>
+      <c r="U18" s="102">
+        <v>0</v>
+      </c>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+    </row>
+    <row r="19" spans="1:62">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="93"/>
+      <c r="AS19" s="93"/>
+      <c r="AT19" s="93"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="93"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+    </row>
+    <row r="20" spans="1:62">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="93"/>
+      <c r="BE20" s="93"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="93"/>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="93"/>
+    </row>
+    <row r="21" spans="1:62">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="93"/>
+      <c r="AO21" s="93"/>
+      <c r="AP21" s="93"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="93"/>
+      <c r="AS21" s="93"/>
+      <c r="AT21" s="93"/>
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="93"/>
+      <c r="AW21" s="93"/>
+      <c r="AX21" s="93"/>
+      <c r="AY21" s="93"/>
+      <c r="AZ21" s="93"/>
+      <c r="BA21" s="93"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="93"/>
+      <c r="BE21" s="93"/>
+      <c r="BF21" s="93"/>
+      <c r="BG21" s="93"/>
+      <c r="BH21" s="93"/>
+      <c r="BI21" s="93"/>
+      <c r="BJ21" s="93"/>
+    </row>
+    <row r="22" spans="1:62">
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J6:N6"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15218,13 +20345,13 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -15584,13 +20711,13 @@
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="T22" s="88" t="s">
+      <c r="T22" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
     </row>
     <row r="23" spans="2:24">
       <c r="R23" s="14" t="s">
@@ -15707,13 +20834,13 @@
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="T31" s="88" t="s">
+      <c r="T31" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
     </row>
     <row r="32" spans="2:24">
       <c r="R32" s="14" t="s">

--- a/수학기초개념학습.xlsx
+++ b/수학기초개념학습.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313C7EE-2F44-4FDC-9435-D0C20B3E7262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482D99FB-3555-45A7-9F91-85AFC6B7890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="17" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="21" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="연관분석" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,11 @@
     <sheet name="영상히스토그램" sheetId="16" r:id="rId16"/>
     <sheet name="정규분포" sheetId="17" r:id="rId17"/>
     <sheet name="영상처리" sheetId="18" r:id="rId18"/>
+    <sheet name="Conv_합성곱" sheetId="19" r:id="rId19"/>
+    <sheet name="3차원컨벌루션연산" sheetId="21" r:id="rId20"/>
+    <sheet name="ML개념_회귀" sheetId="22" r:id="rId21"/>
+    <sheet name="불순도_지니지수_엔트로피지수" sheetId="23" r:id="rId22"/>
+    <sheet name="Sheet6" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="258">
   <si>
     <t>거래번호</t>
   </si>
@@ -859,12 +864,283 @@
     <t>침식</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>1차원 컨벌루션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널</t>
+  </si>
+  <si>
+    <t>커널</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 동그라미 =&gt; 합성곱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mask kernel filter window</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 덧대기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 패딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로패딩 개념</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로 패딩이 있는 이미지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 부분은 벡터연산이 불가해서 빈 공간이 발생하는데 1. 이를 채울 건지 2. 이를 비우고 사이즈를 줄일건지 두 가지 선택이 가능하다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이어스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONV1D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 내용이 padding에 대한 내용이다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징맵</t>
+  </si>
+  <si>
+    <t>특징맵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON2D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 컨벌루션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>same padding을 통해 엣지를 두드러지게 만들어 특징을 더 잘 뽑을 수 있게함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONV와 POOLING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>컨벌루션연산 예제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y(실제값)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y=ax+b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차제곱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차제곱합</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 머신 예측</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 머신 예측</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a+b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4a+b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a+b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a+b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a+b-81</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4a+b-93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6a+b-91</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a+b-97</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2a+b-81)^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4a+b-93)^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6a+b-91)^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8a+b-97)^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2a+b-81)^2+(4a+b-93)^2 + (6a+b-91)^2 +(8a+b-97)^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코뿔소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타조</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P^2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니지수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼룩말</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하마</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 1-(발생율 제곱의 합)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔트로피 지수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그마</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,8 +1226,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70AD47"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,8 +1402,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1485,13 +1833,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,9 +2148,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1804,9 +2190,6 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1818,6 +2201,123 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4156,6 +4656,287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ML개념_회귀!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ML개념_회귀!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9807-411D-A77E-E3FC54F6E3D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1159101727"/>
+        <c:axId val="1159102975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1159101727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159102975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1159102975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159101727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4317,6 +5098,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6425,6 +7246,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9180,6 +10517,190 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548359</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E142BB1D-4D1A-4665-A694-680EB7D0E58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714376" y="11801475"/>
+          <a:ext cx="4405983" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277178</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214416D7-45AD-445C-A527-86D76B634080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9525"/>
+          <a:ext cx="6830378" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA43912-AEA3-46B9-A981-FAEE2254C15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7080CF-DBC0-4FA1-8104-F34185330A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7181850" y="419101"/>
+          <a:ext cx="4886325" cy="2657474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -9653,7 +11174,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18610,7 +20131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE482B99-A4AA-4732-9E37-C6A85EC41F2A}">
   <dimension ref="A2:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
@@ -18623,367 +20144,367 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:62" s="28" customFormat="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="91"/>
-      <c r="AZ2" s="91"/>
-      <c r="BA2" s="91"/>
-      <c r="BB2" s="91"/>
-      <c r="BC2" s="91"/>
-      <c r="BD2" s="91"/>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="91"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="91"/>
-      <c r="BJ2" s="91"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="90"/>
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="90"/>
     </row>
     <row r="3" spans="1:62">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="92"/>
+      <c r="BE3" s="92"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="92"/>
     </row>
     <row r="4" spans="1:62">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="101">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="100">
         <v>1</v>
       </c>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="93"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="93"/>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
     </row>
     <row r="5" spans="1:62">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="96" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="93"/>
-      <c r="BD5" s="93"/>
-      <c r="BE5" s="93"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="93"/>
-      <c r="BH5" s="93"/>
-      <c r="BI5" s="93"/>
-      <c r="BJ5" s="93"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="92"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="92"/>
+      <c r="BG5" s="92"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
     </row>
     <row r="6" spans="1:62">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="104" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="107" t="s">
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="93"/>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="93"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="93"/>
-      <c r="BA6" s="93"/>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="93"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="93"/>
-      <c r="BF6" s="93"/>
-      <c r="BG6" s="93"/>
-      <c r="BH6" s="93"/>
-      <c r="BI6" s="93"/>
-      <c r="BJ6" s="93"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
     </row>
     <row r="7" spans="1:62">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
       <c r="X7" s="88">
         <v>0</v>
       </c>
@@ -19008,40 +20529,40 @@
       <c r="AE7" s="88">
         <v>0</v>
       </c>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="93"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="92"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="92"/>
+      <c r="AV7" s="92"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="92"/>
+      <c r="BF7" s="92"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="92"/>
+      <c r="BJ7" s="92"/>
     </row>
     <row r="8" spans="1:62">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="88">
         <v>0</v>
       </c>
@@ -19066,35 +20587,35 @@
       <c r="I8" s="88">
         <v>0</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="96" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
       <c r="X8" s="88">
         <v>0</v>
       </c>
       <c r="Y8" s="88">
         <v>0</v>
       </c>
-      <c r="Z8" s="106">
+      <c r="Z8" s="104">
         <v>1</v>
       </c>
-      <c r="AA8" s="101">
+      <c r="AA8" s="100">
         <v>1</v>
       </c>
-      <c r="AB8" s="106">
+      <c r="AB8" s="104">
         <v>1</v>
       </c>
       <c r="AC8" s="88">
@@ -19106,40 +20627,40 @@
       <c r="AE8" s="88">
         <v>0</v>
       </c>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
-      <c r="BJ8" s="93"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
     </row>
     <row r="9" spans="1:62">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="88">
         <v>0</v>
       </c>
@@ -19164,78 +20685,78 @@
       <c r="I9" s="88">
         <v>0</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="106">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="104">
         <v>1</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="100">
         <v>1</v>
       </c>
-      <c r="Z9" s="100">
+      <c r="Z9" s="99">
         <v>1</v>
       </c>
-      <c r="AA9" s="101">
+      <c r="AA9" s="100">
         <v>1</v>
       </c>
-      <c r="AB9" s="100">
+      <c r="AB9" s="99">
         <v>1</v>
       </c>
-      <c r="AC9" s="101">
+      <c r="AC9" s="100">
         <v>1</v>
       </c>
-      <c r="AD9" s="106">
+      <c r="AD9" s="104">
         <v>1</v>
       </c>
       <c r="AE9" s="88">
         <v>0</v>
       </c>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
-      <c r="BJ9" s="93"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="92"/>
+      <c r="BJ9" s="92"/>
     </row>
     <row r="10" spans="1:62">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="88">
         <v>0</v>
       </c>
@@ -19260,78 +20781,78 @@
       <c r="I10" s="88">
         <v>0</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="106">
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="104">
         <v>1</v>
       </c>
-      <c r="Y10" s="101">
+      <c r="Y10" s="100">
         <v>1</v>
       </c>
-      <c r="Z10" s="100">
+      <c r="Z10" s="99">
         <v>1</v>
       </c>
-      <c r="AA10" s="100">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="101">
+      <c r="AA10" s="99">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="100">
         <v>1</v>
       </c>
-      <c r="AC10" s="100">
+      <c r="AC10" s="99">
         <v>1</v>
       </c>
-      <c r="AD10" s="101">
+      <c r="AD10" s="100">
         <v>1</v>
       </c>
-      <c r="AE10" s="106">
+      <c r="AE10" s="104">
         <v>1</v>
       </c>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="93"/>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
-      <c r="BJ10" s="93"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
+      <c r="BJ10" s="92"/>
     </row>
     <row r="11" spans="1:62">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="88">
         <v>0</v>
       </c>
@@ -19356,222 +20877,222 @@
       <c r="I11" s="88">
         <v>0</v>
       </c>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
     </row>
     <row r="12" spans="1:62">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="92"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="92"/>
+      <c r="BE12" s="92"/>
+      <c r="BF12" s="92"/>
+      <c r="BG12" s="92"/>
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="92"/>
+      <c r="BJ12" s="92"/>
     </row>
     <row r="13" spans="1:62" ht="23.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="90" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="97" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="90" t="s">
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="97" t="s">
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="108" t="s">
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="93"/>
-      <c r="BH13" s="93"/>
-      <c r="BI13" s="93"/>
-      <c r="BJ13" s="93"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
     </row>
     <row r="14" spans="1:62">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
       <c r="X14" s="88">
         <v>0</v>
       </c>
@@ -19596,40 +21117,40 @@
       <c r="AE14" s="88">
         <v>0</v>
       </c>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="93"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="93"/>
-      <c r="BG14" s="93"/>
-      <c r="BH14" s="93"/>
-      <c r="BI14" s="93"/>
-      <c r="BJ14" s="93"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="92"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="92"/>
+      <c r="BE14" s="92"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="92"/>
+      <c r="BH14" s="92"/>
+      <c r="BI14" s="92"/>
+      <c r="BJ14" s="92"/>
     </row>
     <row r="15" spans="1:62">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="88">
         <v>0</v>
       </c>
@@ -19654,10 +21175,10 @@
       <c r="I15" s="88">
         <v>0</v>
       </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="88">
         <v>0</v>
       </c>
@@ -19682,8 +21203,8 @@
       <c r="U15" s="88">
         <v>0</v>
       </c>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
       <c r="X15" s="88">
         <v>0</v>
       </c>
@@ -19708,53 +21229,53 @@
       <c r="AE15" s="88">
         <v>0</v>
       </c>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="93"/>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="93"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="93"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="93"/>
-      <c r="BG15" s="93"/>
-      <c r="BH15" s="93"/>
-      <c r="BI15" s="93"/>
-      <c r="BJ15" s="93"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="92"/>
+      <c r="AQ15" s="92"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="92"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="92"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="92"/>
+      <c r="BH15" s="92"/>
+      <c r="BI15" s="92"/>
+      <c r="BJ15" s="92"/>
     </row>
     <row r="16" spans="1:62">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="88">
         <v>0</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="97">
         <v>1</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="98">
         <v>1</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="97">
         <v>1</v>
       </c>
       <c r="G16" s="88">
@@ -19766,23 +21287,23 @@
       <c r="I16" s="88">
         <v>0</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="88">
         <v>0</v>
       </c>
       <c r="O16" s="88">
         <v>0</v>
       </c>
-      <c r="P16" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="101">
-        <v>0</v>
-      </c>
-      <c r="R16" s="100">
+      <c r="P16" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="100">
+        <v>0</v>
+      </c>
+      <c r="R16" s="99">
         <v>0</v>
       </c>
       <c r="S16" s="88">
@@ -19794,8 +21315,8 @@
       <c r="U16" s="88">
         <v>0</v>
       </c>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
       <c r="X16" s="88">
         <v>0</v>
       </c>
@@ -19820,94 +21341,94 @@
       <c r="AE16" s="88">
         <v>0</v>
       </c>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="93"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="92"/>
+      <c r="BJ16" s="92"/>
     </row>
     <row r="17" spans="1:62">
-      <c r="A17" s="93"/>
-      <c r="B17" s="98">
+      <c r="A17" s="92"/>
+      <c r="B17" s="97">
         <v>1</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="98">
         <v>1</v>
       </c>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <v>1</v>
       </c>
       <c r="E17" s="88">
         <v>1</v>
       </c>
-      <c r="F17" s="102">
+      <c r="F17" s="101">
         <v>1</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="98">
         <v>1</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="97">
         <v>1</v>
       </c>
       <c r="I17" s="88">
         <v>0</v>
       </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="102">
-        <v>0</v>
-      </c>
-      <c r="O17" s="101">
-        <v>0</v>
-      </c>
-      <c r="P17" s="102">
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="101">
+        <v>0</v>
+      </c>
+      <c r="O17" s="100">
+        <v>0</v>
+      </c>
+      <c r="P17" s="101">
         <v>1</v>
       </c>
       <c r="Q17" s="88">
         <v>1</v>
       </c>
-      <c r="R17" s="102">
+      <c r="R17" s="101">
         <v>1</v>
       </c>
-      <c r="S17" s="101">
-        <v>0</v>
-      </c>
-      <c r="T17" s="102">
+      <c r="S17" s="100">
+        <v>0</v>
+      </c>
+      <c r="T17" s="101">
         <v>0</v>
       </c>
       <c r="U17" s="88">
         <v>0</v>
       </c>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
       <c r="X17" s="88">
         <v>0</v>
       </c>
@@ -19932,158 +21453,158 @@
       <c r="AE17" s="88">
         <v>0</v>
       </c>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
-      <c r="AQ17" s="93"/>
-      <c r="AR17" s="93"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="93"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="93"/>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="93"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="92"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="92"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="92"/>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="92"/>
+      <c r="BJ17" s="92"/>
     </row>
     <row r="18" spans="1:62">
-      <c r="A18" s="93"/>
-      <c r="B18" s="98">
+      <c r="A18" s="92"/>
+      <c r="B18" s="97">
         <v>1</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="98">
         <v>1</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="102">
         <v>1</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="101">
         <v>1</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="101">
         <v>1</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="98">
         <v>1</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="97">
         <v>1</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="102">
-        <v>0</v>
-      </c>
-      <c r="O18" s="101">
-        <v>0</v>
-      </c>
-      <c r="P18" s="101">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="102">
-        <v>0</v>
-      </c>
-      <c r="R18" s="101">
-        <v>0</v>
-      </c>
-      <c r="S18" s="102">
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="101">
+        <v>0</v>
+      </c>
+      <c r="O18" s="100">
+        <v>0</v>
+      </c>
+      <c r="P18" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>0</v>
+      </c>
+      <c r="R18" s="100">
+        <v>0</v>
+      </c>
+      <c r="S18" s="101">
         <v>1</v>
       </c>
-      <c r="T18" s="101">
-        <v>0</v>
-      </c>
-      <c r="U18" s="102">
-        <v>0</v>
-      </c>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="93"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="93"/>
-      <c r="BA18" s="93"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="93"/>
-      <c r="BF18" s="93"/>
-      <c r="BG18" s="93"/>
-      <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="93"/>
+      <c r="T18" s="100">
+        <v>0</v>
+      </c>
+      <c r="U18" s="101">
+        <v>0</v>
+      </c>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="92"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="92"/>
+      <c r="BJ18" s="92"/>
     </row>
     <row r="19" spans="1:62">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
       <c r="X19" s="88"/>
       <c r="Y19" s="88"/>
       <c r="Z19" s="88"/>
@@ -20092,62 +21613,62 @@
       <c r="AC19" s="88"/>
       <c r="AD19" s="88"/>
       <c r="AE19" s="88"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="93"/>
-      <c r="BA19" s="93"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="93"/>
-      <c r="BF19" s="93"/>
-      <c r="BG19" s="93"/>
-      <c r="BH19" s="93"/>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="93"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="92"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="92"/>
+      <c r="BH19" s="92"/>
+      <c r="BI19" s="92"/>
+      <c r="BJ19" s="92"/>
     </row>
     <row r="20" spans="1:62">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
       <c r="X20" s="88"/>
       <c r="Y20" s="88"/>
       <c r="Z20" s="88"/>
@@ -20156,62 +21677,62 @@
       <c r="AC20" s="88"/>
       <c r="AD20" s="88"/>
       <c r="AE20" s="88"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="93"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="92"/>
+      <c r="AO20" s="92"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="92"/>
+      <c r="AS20" s="92"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="92"/>
+      <c r="BG20" s="92"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
     </row>
     <row r="21" spans="1:62">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
       <c r="X21" s="88"/>
       <c r="Y21" s="88"/>
       <c r="Z21" s="88"/>
@@ -20220,37 +21741,37 @@
       <c r="AC21" s="88"/>
       <c r="AD21" s="88"/>
       <c r="AE21" s="88"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="93"/>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="93"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93"/>
-      <c r="AV21" s="93"/>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="93"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="93"/>
-      <c r="BA21" s="93"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="93"/>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="93"/>
-      <c r="BH21" s="93"/>
-      <c r="BI21" s="93"/>
-      <c r="BJ21" s="93"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="92"/>
+      <c r="AO21" s="92"/>
+      <c r="AP21" s="92"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="92"/>
+      <c r="AS21" s="92"/>
+      <c r="AT21" s="92"/>
+      <c r="AU21" s="92"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="92"/>
+      <c r="AX21" s="92"/>
+      <c r="AY21" s="92"/>
+      <c r="AZ21" s="92"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="92"/>
+      <c r="BD21" s="92"/>
+      <c r="BE21" s="92"/>
+      <c r="BF21" s="92"/>
+      <c r="BG21" s="92"/>
+      <c r="BH21" s="92"/>
+      <c r="BI21" s="92"/>
+      <c r="BJ21" s="92"/>
     </row>
     <row r="22" spans="1:62">
       <c r="X22" s="88"/>
@@ -20269,6 +21790,827 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BC8B15-9520-4675-B243-F332C1F3E3FC}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="9" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="N2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="28" customFormat="1">
+      <c r="D8" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B9" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B10" s="109">
+        <v>3</v>
+      </c>
+      <c r="C10" s="110">
+        <v>2</v>
+      </c>
+      <c r="D10" s="110">
+        <v>4</v>
+      </c>
+      <c r="E10" s="110">
+        <v>5</v>
+      </c>
+      <c r="F10" s="111">
+        <v>1</v>
+      </c>
+      <c r="G10" s="123">
+        <v>20</v>
+      </c>
+      <c r="H10" s="111">
+        <v>2</v>
+      </c>
+      <c r="I10" s="112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="113">
+        <f>$E$13*B10+$F$13*C10+$G$13*D10</f>
+        <v>2.9</v>
+      </c>
+      <c r="D15" s="113">
+        <f t="shared" ref="D15:K15" si="0">$E$13*C10+$F$13*D10+$G$13*E10</f>
+        <v>3.7</v>
+      </c>
+      <c r="E15" s="113">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F15" s="113">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="G15" s="122">
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="H15" s="113">
+        <f t="shared" si="0"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="116">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.9</v>
+      </c>
+      <c r="D18">
+        <v>3.7</v>
+      </c>
+      <c r="E18">
+        <v>3.5</v>
+      </c>
+      <c r="F18">
+        <v>7.9</v>
+      </c>
+      <c r="G18" s="121">
+        <v>8.9</v>
+      </c>
+      <c r="H18">
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="I18" s="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="C20">
+        <f>$C$19+C18</f>
+        <v>3.1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:H20" si="1">$C$19+D18</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="G20" s="121">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="28" customFormat="1"/>
+    <row r="23" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B24" s="109">
+        <v>0</v>
+      </c>
+      <c r="C24" s="110">
+        <v>3</v>
+      </c>
+      <c r="D24" s="110">
+        <v>2</v>
+      </c>
+      <c r="E24" s="110">
+        <v>4</v>
+      </c>
+      <c r="F24" s="110">
+        <v>5</v>
+      </c>
+      <c r="G24" s="111">
+        <v>1</v>
+      </c>
+      <c r="H24" s="111">
+        <v>20</v>
+      </c>
+      <c r="I24" s="111">
+        <v>2</v>
+      </c>
+      <c r="J24" s="110">
+        <v>2</v>
+      </c>
+      <c r="K24" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="28" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B28" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="118">
+        <f>$C$26*B24+$D$26*C24+$E$26*D24</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="D28" s="118">
+        <f t="shared" ref="D28:R28" si="2">$C$26*C24+$D$26*D24+$E$26*E24</f>
+        <v>2.9</v>
+      </c>
+      <c r="E28" s="118">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="F28" s="118">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="118">
+        <f t="shared" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="H28" s="118">
+        <f t="shared" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="I28" s="118">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="J28" s="118">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="K28" s="120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="28" customFormat="1">
+      <c r="B32" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B34" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B35" s="124">
+        <v>2</v>
+      </c>
+      <c r="C35" s="125">
+        <v>2</v>
+      </c>
+      <c r="D35" s="125">
+        <v>2</v>
+      </c>
+      <c r="E35" s="125">
+        <v>2</v>
+      </c>
+      <c r="F35" s="125">
+        <v>2</v>
+      </c>
+      <c r="G35" s="125">
+        <v>1</v>
+      </c>
+      <c r="H35" s="125">
+        <v>1</v>
+      </c>
+      <c r="I35" s="126">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="127">
+        <v>2</v>
+      </c>
+      <c r="C36" s="128">
+        <v>2</v>
+      </c>
+      <c r="D36" s="128">
+        <v>2</v>
+      </c>
+      <c r="E36" s="128">
+        <v>2</v>
+      </c>
+      <c r="F36" s="128">
+        <v>2</v>
+      </c>
+      <c r="G36" s="128">
+        <v>1</v>
+      </c>
+      <c r="H36" s="128">
+        <v>1</v>
+      </c>
+      <c r="I36" s="129">
+        <v>1</v>
+      </c>
+      <c r="K36" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="85">
+        <v>0</v>
+      </c>
+      <c r="M36" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="127">
+        <v>2</v>
+      </c>
+      <c r="C37" s="128">
+        <v>2</v>
+      </c>
+      <c r="D37" s="128">
+        <v>2</v>
+      </c>
+      <c r="E37" s="128">
+        <v>2</v>
+      </c>
+      <c r="F37" s="128">
+        <v>2</v>
+      </c>
+      <c r="G37" s="128">
+        <v>1</v>
+      </c>
+      <c r="H37" s="128">
+        <v>1</v>
+      </c>
+      <c r="I37" s="129">
+        <v>1</v>
+      </c>
+      <c r="K37" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="42">
+        <v>0</v>
+      </c>
+      <c r="M37" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B38" s="127">
+        <v>2</v>
+      </c>
+      <c r="C38" s="128">
+        <v>2</v>
+      </c>
+      <c r="D38" s="128">
+        <v>2</v>
+      </c>
+      <c r="E38" s="128">
+        <v>2</v>
+      </c>
+      <c r="F38" s="128">
+        <v>2</v>
+      </c>
+      <c r="G38" s="128">
+        <v>1</v>
+      </c>
+      <c r="H38" s="128">
+        <v>1</v>
+      </c>
+      <c r="I38" s="129">
+        <v>1</v>
+      </c>
+      <c r="K38" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="87">
+        <v>0</v>
+      </c>
+      <c r="M38" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="127">
+        <v>2</v>
+      </c>
+      <c r="C39" s="133">
+        <v>2</v>
+      </c>
+      <c r="D39" s="133">
+        <v>2</v>
+      </c>
+      <c r="E39" s="133">
+        <v>9</v>
+      </c>
+      <c r="F39" s="128">
+        <v>9</v>
+      </c>
+      <c r="G39" s="128">
+        <v>9</v>
+      </c>
+      <c r="H39" s="128">
+        <v>9</v>
+      </c>
+      <c r="I39" s="129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="127">
+        <v>2</v>
+      </c>
+      <c r="C40" s="133">
+        <v>2</v>
+      </c>
+      <c r="D40" s="133">
+        <v>2</v>
+      </c>
+      <c r="E40" s="133">
+        <v>9</v>
+      </c>
+      <c r="F40" s="128">
+        <v>9</v>
+      </c>
+      <c r="G40" s="128">
+        <v>9</v>
+      </c>
+      <c r="H40" s="128">
+        <v>9</v>
+      </c>
+      <c r="I40" s="129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="127">
+        <v>2</v>
+      </c>
+      <c r="C41" s="133">
+        <v>2</v>
+      </c>
+      <c r="D41" s="133">
+        <v>2</v>
+      </c>
+      <c r="E41" s="133">
+        <v>9</v>
+      </c>
+      <c r="F41" s="128">
+        <v>9</v>
+      </c>
+      <c r="G41" s="128">
+        <v>9</v>
+      </c>
+      <c r="H41" s="128">
+        <v>9</v>
+      </c>
+      <c r="I41" s="129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B42" s="130">
+        <v>2</v>
+      </c>
+      <c r="C42" s="131">
+        <v>2</v>
+      </c>
+      <c r="D42" s="131">
+        <v>2</v>
+      </c>
+      <c r="E42" s="131">
+        <v>9</v>
+      </c>
+      <c r="F42" s="131">
+        <v>9</v>
+      </c>
+      <c r="G42" s="131">
+        <v>9</v>
+      </c>
+      <c r="H42" s="131">
+        <v>9</v>
+      </c>
+      <c r="I42" s="132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B44" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="128">
+        <f>B35*$K$36+C35*$L$36+D35*$M$36+B36*$K$37+C36*$L$37+D36*$M$37+B37*$K$38+C37*$L$38+D37*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="128">
+        <f t="shared" ref="D46:H46" si="3">C35*$K$36+D35*$L$36+E35*$M$36+C36*$K$37+D36*$L$37+E36*$M$37+C37*$K$38+D37*$L$38+E37*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="128">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="G46" s="128">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="H46" s="128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="128">
+        <f t="shared" ref="C47:H47" si="4">B36*$K$36+C36*$L$36+D36*$M$36+B37*$K$37+C37*$L$37+D37*$M$37+B38*$K$38+C38*$L$38+D38*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="128">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="G47" s="128">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="H47" s="128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="128">
+        <f t="shared" ref="C48:H48" si="5">B37*$K$36+C37*$L$36+D37*$M$36+B38*$K$37+C38*$L$37+D38*$M$37+B39*$K$38+C39*$L$38+D39*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="128">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E48" s="128">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F48" s="128">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="G48" s="128">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="H48" s="128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="128">
+        <f t="shared" ref="C49:H49" si="6">B38*$K$36+C38*$L$36+D38*$M$36+B39*$K$37+C39*$L$37+D39*$M$37+B40*$K$38+C40*$L$38+D40*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="128">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E49" s="128">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="F49" s="128">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G49" s="128">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="H49" s="128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="128">
+        <f t="shared" ref="C50:H50" si="7">B39*$K$36+C39*$L$36+D39*$M$36+B40*$K$37+C40*$L$37+D40*$M$37+B41*$K$38+C41*$L$38+D41*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="128">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E50" s="128">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="F50" s="128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="128">
+        <f t="shared" ref="C51:H51" si="8">B40*$K$36+C40*$L$36+D40*$M$36+B41*$K$37+C41*$L$37+D41*$M$37+B42*$K$38+C42*$L$38+D42*$M$38</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="128">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="E51" s="128">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="F51" s="128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B52" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="28" customFormat="1">
+      <c r="B55" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" s="28" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20345,13 +22687,13 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="89" t="s">
+      <c r="T6" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" t="s">
@@ -20711,13 +23053,13 @@
       </c>
     </row>
     <row r="22" spans="2:24">
-      <c r="T22" s="89" t="s">
+      <c r="T22" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
     </row>
     <row r="23" spans="2:24">
       <c r="R23" s="14" t="s">
@@ -20834,13 +23176,13 @@
       </c>
     </row>
     <row r="31" spans="2:24">
-      <c r="T31" s="89" t="s">
+      <c r="T31" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
     </row>
     <row r="32" spans="2:24">
       <c r="R32" s="14" t="s">
@@ -20962,6 +23304,2116 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600F745-D4D0-4BA0-BE08-0A6CAADD415D}">
+  <dimension ref="A1:BZ16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T12" sqref="T12:V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="4" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:78" s="28" customFormat="1">
+      <c r="B1" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
+      <c r="BI2" s="134"/>
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="134"/>
+      <c r="BP2" s="134"/>
+      <c r="BQ2" s="134"/>
+      <c r="BR2" s="134"/>
+      <c r="BS2" s="134"/>
+      <c r="BT2" s="134"/>
+      <c r="BU2" s="134"/>
+      <c r="BV2" s="134"/>
+      <c r="BW2" s="134"/>
+      <c r="BX2" s="134"/>
+      <c r="BY2" s="134"/>
+      <c r="BZ2" s="134"/>
+    </row>
+    <row r="3" spans="1:78">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="134"/>
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="134"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+    </row>
+    <row r="4" spans="1:78">
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="138">
+        <v>0</v>
+      </c>
+      <c r="D4" s="138">
+        <v>0</v>
+      </c>
+      <c r="E4" s="138">
+        <v>0</v>
+      </c>
+      <c r="F4" s="138">
+        <v>0</v>
+      </c>
+      <c r="G4" s="138">
+        <v>0</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="138">
+        <v>0</v>
+      </c>
+      <c r="K4" s="138">
+        <v>0</v>
+      </c>
+      <c r="L4" s="138">
+        <v>0</v>
+      </c>
+      <c r="M4" s="138">
+        <v>0</v>
+      </c>
+      <c r="N4" s="138">
+        <v>0</v>
+      </c>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="138">
+        <v>0</v>
+      </c>
+      <c r="R4" s="138">
+        <v>0</v>
+      </c>
+      <c r="S4" s="138">
+        <v>0</v>
+      </c>
+      <c r="T4" s="138">
+        <v>0</v>
+      </c>
+      <c r="U4" s="138">
+        <v>0</v>
+      </c>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="134"/>
+      <c r="AT4" s="134"/>
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="134"/>
+      <c r="BQ4" s="134"/>
+      <c r="BR4" s="134"/>
+      <c r="BS4" s="134"/>
+      <c r="BT4" s="134"/>
+      <c r="BU4" s="134"/>
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="134"/>
+      <c r="BY4" s="134"/>
+      <c r="BZ4" s="134"/>
+    </row>
+    <row r="5" spans="1:78">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="138">
+        <v>0</v>
+      </c>
+      <c r="D5" s="138">
+        <v>1</v>
+      </c>
+      <c r="E5" s="138">
+        <v>1</v>
+      </c>
+      <c r="F5" s="138">
+        <v>1</v>
+      </c>
+      <c r="G5" s="138">
+        <v>0</v>
+      </c>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="138">
+        <v>0</v>
+      </c>
+      <c r="K5" s="139">
+        <v>2</v>
+      </c>
+      <c r="L5" s="138">
+        <v>2</v>
+      </c>
+      <c r="M5" s="138">
+        <v>2</v>
+      </c>
+      <c r="N5" s="138">
+        <v>0</v>
+      </c>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="138">
+        <v>0</v>
+      </c>
+      <c r="R5" s="138">
+        <v>0</v>
+      </c>
+      <c r="S5" s="138">
+        <v>3</v>
+      </c>
+      <c r="T5" s="138">
+        <v>0</v>
+      </c>
+      <c r="U5" s="138">
+        <v>0</v>
+      </c>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="138">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="138">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="138">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134"/>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="134"/>
+      <c r="BO5" s="134"/>
+      <c r="BP5" s="134"/>
+      <c r="BQ5" s="134"/>
+      <c r="BR5" s="134"/>
+      <c r="BS5" s="134"/>
+      <c r="BT5" s="134"/>
+      <c r="BU5" s="134"/>
+      <c r="BV5" s="134"/>
+      <c r="BW5" s="134"/>
+      <c r="BX5" s="134"/>
+      <c r="BY5" s="134"/>
+      <c r="BZ5" s="134"/>
+    </row>
+    <row r="6" spans="1:78">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="138">
+        <v>0</v>
+      </c>
+      <c r="D6" s="138">
+        <v>2</v>
+      </c>
+      <c r="E6" s="138">
+        <v>1</v>
+      </c>
+      <c r="F6" s="138">
+        <v>3</v>
+      </c>
+      <c r="G6" s="138">
+        <v>0</v>
+      </c>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="138">
+        <v>0</v>
+      </c>
+      <c r="K6" s="138">
+        <v>1</v>
+      </c>
+      <c r="L6" s="138">
+        <v>0</v>
+      </c>
+      <c r="M6" s="138">
+        <v>1</v>
+      </c>
+      <c r="N6" s="138">
+        <v>0</v>
+      </c>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="138">
+        <v>0</v>
+      </c>
+      <c r="R6" s="138">
+        <v>1</v>
+      </c>
+      <c r="S6" s="138">
+        <v>0</v>
+      </c>
+      <c r="T6" s="138">
+        <v>1</v>
+      </c>
+      <c r="U6" s="138">
+        <v>0</v>
+      </c>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="138">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="138">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="138">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="138">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="134"/>
+      <c r="AO6" s="134"/>
+      <c r="AP6" s="134"/>
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="134"/>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="134"/>
+      <c r="AU6" s="134"/>
+      <c r="AV6" s="134"/>
+      <c r="AW6" s="134"/>
+      <c r="AX6" s="134"/>
+      <c r="AY6" s="134"/>
+      <c r="AZ6" s="134"/>
+      <c r="BA6" s="134"/>
+      <c r="BB6" s="134"/>
+      <c r="BC6" s="134"/>
+      <c r="BD6" s="134"/>
+      <c r="BE6" s="134"/>
+      <c r="BF6" s="134"/>
+      <c r="BG6" s="134"/>
+      <c r="BH6" s="134"/>
+      <c r="BI6" s="134"/>
+      <c r="BJ6" s="134"/>
+      <c r="BK6" s="134"/>
+      <c r="BL6" s="134"/>
+      <c r="BM6" s="134"/>
+      <c r="BN6" s="134"/>
+      <c r="BO6" s="134"/>
+      <c r="BP6" s="134"/>
+      <c r="BQ6" s="134"/>
+      <c r="BR6" s="134"/>
+      <c r="BS6" s="134"/>
+      <c r="BT6" s="134"/>
+      <c r="BU6" s="134"/>
+      <c r="BV6" s="134"/>
+      <c r="BW6" s="134"/>
+      <c r="BX6" s="134"/>
+      <c r="BY6" s="134"/>
+      <c r="BZ6" s="134"/>
+    </row>
+    <row r="7" spans="1:78">
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="138">
+        <v>0</v>
+      </c>
+      <c r="D7" s="138">
+        <v>0</v>
+      </c>
+      <c r="E7" s="138">
+        <v>1</v>
+      </c>
+      <c r="F7" s="138">
+        <v>0</v>
+      </c>
+      <c r="G7" s="138">
+        <v>0</v>
+      </c>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="138">
+        <v>0</v>
+      </c>
+      <c r="K7" s="138">
+        <v>0</v>
+      </c>
+      <c r="L7" s="138">
+        <v>0</v>
+      </c>
+      <c r="M7" s="138">
+        <v>1</v>
+      </c>
+      <c r="N7" s="138">
+        <v>0</v>
+      </c>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="138">
+        <v>0</v>
+      </c>
+      <c r="R7" s="138">
+        <v>1</v>
+      </c>
+      <c r="S7" s="138">
+        <v>0</v>
+      </c>
+      <c r="T7" s="138">
+        <v>0</v>
+      </c>
+      <c r="U7" s="138">
+        <v>0</v>
+      </c>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="138">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="138">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="138">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="138">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="134"/>
+      <c r="AO7" s="134"/>
+      <c r="AP7" s="134"/>
+      <c r="AQ7" s="134"/>
+      <c r="AR7" s="134"/>
+      <c r="AS7" s="134"/>
+      <c r="AT7" s="134"/>
+      <c r="AU7" s="134"/>
+      <c r="AV7" s="134"/>
+      <c r="AW7" s="134"/>
+      <c r="AX7" s="134"/>
+      <c r="AY7" s="134"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="134"/>
+      <c r="BC7" s="134"/>
+      <c r="BD7" s="134"/>
+      <c r="BE7" s="134"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="134"/>
+      <c r="BI7" s="134"/>
+      <c r="BJ7" s="134"/>
+      <c r="BK7" s="134"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="134"/>
+      <c r="BO7" s="134"/>
+      <c r="BP7" s="134"/>
+      <c r="BQ7" s="134"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="134"/>
+      <c r="BU7" s="134"/>
+      <c r="BV7" s="134"/>
+      <c r="BW7" s="134"/>
+      <c r="BX7" s="134"/>
+      <c r="BY7" s="134"/>
+      <c r="BZ7" s="134"/>
+    </row>
+    <row r="8" spans="1:78">
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="138">
+        <v>0</v>
+      </c>
+      <c r="D8" s="138">
+        <v>0</v>
+      </c>
+      <c r="E8" s="138">
+        <v>0</v>
+      </c>
+      <c r="F8" s="138">
+        <v>0</v>
+      </c>
+      <c r="G8" s="138">
+        <v>0</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="138">
+        <v>0</v>
+      </c>
+      <c r="K8" s="138">
+        <v>0</v>
+      </c>
+      <c r="L8" s="138">
+        <v>0</v>
+      </c>
+      <c r="M8" s="138">
+        <v>0</v>
+      </c>
+      <c r="N8" s="138">
+        <v>0</v>
+      </c>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="138">
+        <v>0</v>
+      </c>
+      <c r="R8" s="138">
+        <v>0</v>
+      </c>
+      <c r="S8" s="138">
+        <v>0</v>
+      </c>
+      <c r="T8" s="138">
+        <v>0</v>
+      </c>
+      <c r="U8" s="138">
+        <v>0</v>
+      </c>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="134"/>
+      <c r="AL8" s="134"/>
+      <c r="AM8" s="134"/>
+      <c r="AN8" s="134"/>
+      <c r="AO8" s="134"/>
+      <c r="AP8" s="134"/>
+      <c r="AQ8" s="134"/>
+      <c r="AR8" s="134"/>
+      <c r="AS8" s="134"/>
+      <c r="AT8" s="134"/>
+      <c r="AU8" s="134"/>
+      <c r="AV8" s="134"/>
+      <c r="AW8" s="134"/>
+      <c r="AX8" s="134"/>
+      <c r="AY8" s="134"/>
+      <c r="AZ8" s="134"/>
+      <c r="BA8" s="134"/>
+      <c r="BB8" s="134"/>
+      <c r="BC8" s="134"/>
+      <c r="BD8" s="134"/>
+      <c r="BE8" s="134"/>
+      <c r="BF8" s="134"/>
+      <c r="BG8" s="134"/>
+      <c r="BH8" s="134"/>
+      <c r="BI8" s="134"/>
+      <c r="BJ8" s="134"/>
+      <c r="BK8" s="134"/>
+      <c r="BL8" s="134"/>
+      <c r="BM8" s="134"/>
+      <c r="BN8" s="134"/>
+      <c r="BO8" s="134"/>
+      <c r="BP8" s="134"/>
+      <c r="BQ8" s="134"/>
+      <c r="BR8" s="134"/>
+      <c r="BS8" s="134"/>
+      <c r="BT8" s="134"/>
+      <c r="BU8" s="134"/>
+      <c r="BV8" s="134"/>
+      <c r="BW8" s="134"/>
+      <c r="BX8" s="134"/>
+      <c r="BY8" s="134"/>
+      <c r="BZ8" s="134"/>
+    </row>
+    <row r="9" spans="1:78">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="134"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="134"/>
+      <c r="AL9" s="134"/>
+      <c r="AM9" s="134"/>
+      <c r="AN9" s="134"/>
+      <c r="AO9" s="134"/>
+      <c r="AP9" s="134"/>
+      <c r="AQ9" s="134"/>
+      <c r="AR9" s="134"/>
+      <c r="AS9" s="134"/>
+      <c r="AT9" s="134"/>
+      <c r="AU9" s="134"/>
+      <c r="AV9" s="134"/>
+      <c r="AW9" s="134"/>
+      <c r="AX9" s="134"/>
+      <c r="AY9" s="134"/>
+      <c r="AZ9" s="134"/>
+      <c r="BA9" s="134"/>
+      <c r="BB9" s="134"/>
+      <c r="BC9" s="134"/>
+      <c r="BD9" s="134"/>
+      <c r="BE9" s="134"/>
+      <c r="BF9" s="134"/>
+      <c r="BG9" s="134"/>
+      <c r="BH9" s="134"/>
+      <c r="BI9" s="134"/>
+      <c r="BJ9" s="134"/>
+      <c r="BK9" s="134"/>
+      <c r="BL9" s="134"/>
+      <c r="BM9" s="134"/>
+      <c r="BN9" s="134"/>
+      <c r="BO9" s="134"/>
+      <c r="BP9" s="134"/>
+      <c r="BQ9" s="134"/>
+      <c r="BR9" s="134"/>
+      <c r="BS9" s="134"/>
+      <c r="BT9" s="134"/>
+      <c r="BU9" s="134"/>
+      <c r="BV9" s="134"/>
+      <c r="BW9" s="134"/>
+      <c r="BX9" s="134"/>
+      <c r="BY9" s="134"/>
+      <c r="BZ9" s="134"/>
+    </row>
+    <row r="10" spans="1:78">
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="134"/>
+      <c r="AJ10" s="134"/>
+      <c r="AK10" s="134"/>
+      <c r="AL10" s="134"/>
+      <c r="AM10" s="134"/>
+      <c r="AN10" s="134"/>
+      <c r="AO10" s="134"/>
+      <c r="AP10" s="134"/>
+      <c r="AQ10" s="134"/>
+      <c r="AR10" s="134"/>
+      <c r="AS10" s="134"/>
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="134"/>
+      <c r="AW10" s="134"/>
+      <c r="AX10" s="134"/>
+      <c r="AY10" s="134"/>
+      <c r="AZ10" s="134"/>
+      <c r="BA10" s="134"/>
+      <c r="BB10" s="134"/>
+      <c r="BC10" s="134"/>
+      <c r="BD10" s="134"/>
+      <c r="BE10" s="134"/>
+      <c r="BF10" s="134"/>
+      <c r="BG10" s="134"/>
+      <c r="BH10" s="134"/>
+      <c r="BI10" s="134"/>
+      <c r="BJ10" s="134"/>
+      <c r="BK10" s="134"/>
+      <c r="BL10" s="134"/>
+      <c r="BM10" s="134"/>
+      <c r="BN10" s="134"/>
+      <c r="BO10" s="134"/>
+      <c r="BP10" s="134"/>
+      <c r="BQ10" s="134"/>
+      <c r="BR10" s="134"/>
+      <c r="BS10" s="134"/>
+      <c r="BT10" s="134"/>
+      <c r="BU10" s="134"/>
+      <c r="BV10" s="134"/>
+      <c r="BW10" s="134"/>
+      <c r="BX10" s="134"/>
+      <c r="BY10" s="134"/>
+      <c r="BZ10" s="134"/>
+    </row>
+    <row r="11" spans="1:78">
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="134"/>
+      <c r="AJ11" s="134"/>
+      <c r="AK11" s="134"/>
+      <c r="AL11" s="134"/>
+      <c r="AM11" s="134"/>
+      <c r="AN11" s="134"/>
+      <c r="AO11" s="134"/>
+      <c r="AP11" s="134"/>
+      <c r="AQ11" s="134"/>
+      <c r="AR11" s="134"/>
+      <c r="AS11" s="134"/>
+      <c r="AT11" s="134"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="134"/>
+      <c r="AW11" s="134"/>
+      <c r="AX11" s="134"/>
+      <c r="AY11" s="134"/>
+      <c r="AZ11" s="134"/>
+      <c r="BA11" s="134"/>
+      <c r="BB11" s="134"/>
+      <c r="BC11" s="134"/>
+      <c r="BD11" s="134"/>
+      <c r="BE11" s="134"/>
+      <c r="BF11" s="134"/>
+      <c r="BG11" s="134"/>
+      <c r="BH11" s="134"/>
+      <c r="BI11" s="134"/>
+      <c r="BJ11" s="134"/>
+      <c r="BK11" s="134"/>
+      <c r="BL11" s="134"/>
+      <c r="BM11" s="134"/>
+      <c r="BN11" s="134"/>
+      <c r="BO11" s="134"/>
+      <c r="BP11" s="134"/>
+      <c r="BQ11" s="134"/>
+      <c r="BR11" s="134"/>
+      <c r="BS11" s="134"/>
+      <c r="BT11" s="134"/>
+      <c r="BU11" s="134"/>
+      <c r="BV11" s="134"/>
+      <c r="BW11" s="134"/>
+      <c r="BX11" s="134"/>
+      <c r="BY11" s="134"/>
+      <c r="BZ11" s="134"/>
+    </row>
+    <row r="12" spans="1:78" ht="16.5" customHeight="1">
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="134"/>
+      <c r="AM12" s="134"/>
+      <c r="AN12" s="134"/>
+      <c r="AO12" s="134"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="134"/>
+      <c r="AV12" s="134"/>
+      <c r="AW12" s="134"/>
+      <c r="AX12" s="134"/>
+      <c r="AY12" s="134"/>
+      <c r="AZ12" s="134"/>
+      <c r="BA12" s="134"/>
+      <c r="BB12" s="134"/>
+      <c r="BC12" s="134"/>
+      <c r="BD12" s="134"/>
+      <c r="BE12" s="134"/>
+      <c r="BF12" s="134"/>
+      <c r="BG12" s="134"/>
+      <c r="BH12" s="134"/>
+      <c r="BI12" s="134"/>
+      <c r="BJ12" s="134"/>
+      <c r="BK12" s="134"/>
+      <c r="BL12" s="134"/>
+      <c r="BM12" s="134"/>
+      <c r="BN12" s="134"/>
+      <c r="BO12" s="134"/>
+      <c r="BP12" s="134"/>
+      <c r="BQ12" s="134"/>
+      <c r="BR12" s="134"/>
+      <c r="BS12" s="134"/>
+      <c r="BT12" s="134"/>
+      <c r="BU12" s="134"/>
+      <c r="BV12" s="134"/>
+      <c r="BW12" s="134"/>
+      <c r="BX12" s="134"/>
+      <c r="BY12" s="134"/>
+      <c r="BZ12" s="134"/>
+    </row>
+    <row r="13" spans="1:78">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="140">
+        <f>C4*$AA$5+D4*$AB$5+E4*$AC$5+J4*$AF$5+K4*$AG$5+L4*$AH$5+Q4*$AK$5+R4*$AL$5+S4*$AM$5+C5*$AA$6+D5*$AB$6+E5*$AC$6+J5*$AF$6+K5*$AG$6+L5*$AH$6+Q5*$AK$6+R5*$AL$6+S5*$AM$6+C6*$AA$7+D6*$AB$7+E6*$AC$7+J6*$AF$7+K6*$AG$7+L6*$AH$7+Q6*$AK$7+R6*$AL$7+S6*$AM$7</f>
+        <v>9</v>
+      </c>
+      <c r="U13" s="140">
+        <f t="shared" ref="U13:V13" si="0">D4*$AA$5+E4*$AB$5+F4*$AC$5+K4*$AF$5+L4*$AG$5+M4*$AH$5+R4*$AK$5+S4*$AL$5+T4*$AM$5+D5*$AA$6+E5*$AB$6+F5*$AC$6+K5*$AF$6+L5*$AG$6+M5*$AH$6+R5*$AK$6+S5*$AL$6+T5*$AM$6+D6*$AA$7+E6*$AB$7+F6*$AC$7+K6*$AF$7+L6*$AG$7+M6*$AH$7+R6*$AK$7+S6*$AL$7+T6*$AM$7</f>
+        <v>13</v>
+      </c>
+      <c r="V13" s="140">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="134"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="134"/>
+      <c r="AL13" s="134"/>
+      <c r="AM13" s="134"/>
+      <c r="AN13" s="134"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="134"/>
+      <c r="AQ13" s="134"/>
+      <c r="AR13" s="134"/>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="134"/>
+      <c r="AY13" s="134"/>
+      <c r="AZ13" s="134"/>
+      <c r="BA13" s="134"/>
+      <c r="BB13" s="134"/>
+      <c r="BC13" s="134"/>
+      <c r="BD13" s="134"/>
+      <c r="BE13" s="134"/>
+      <c r="BF13" s="134"/>
+      <c r="BG13" s="134"/>
+      <c r="BH13" s="134"/>
+      <c r="BI13" s="134"/>
+      <c r="BJ13" s="134"/>
+      <c r="BK13" s="134"/>
+      <c r="BL13" s="134"/>
+      <c r="BM13" s="134"/>
+      <c r="BN13" s="134"/>
+      <c r="BO13" s="134"/>
+      <c r="BP13" s="134"/>
+      <c r="BQ13" s="134"/>
+      <c r="BR13" s="134"/>
+      <c r="BS13" s="134"/>
+      <c r="BT13" s="134"/>
+      <c r="BU13" s="134"/>
+      <c r="BV13" s="134"/>
+      <c r="BW13" s="134"/>
+      <c r="BX13" s="134"/>
+      <c r="BY13" s="134"/>
+      <c r="BZ13" s="134"/>
+    </row>
+    <row r="14" spans="1:78">
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="140">
+        <f t="shared" ref="T14:T15" si="1">C5*$AA$5+D5*$AB$5+E5*$AC$5+J5*$AF$5+K5*$AG$5+L5*$AH$5+Q5*$AK$5+R5*$AL$5+S5*$AM$5+C6*$AA$6+D6*$AB$6+E6*$AC$6+J6*$AF$6+K6*$AG$6+L6*$AH$6+Q6*$AK$6+R6*$AL$6+S6*$AM$6+C7*$AA$7+D7*$AB$7+E7*$AC$7+J7*$AF$7+K7*$AG$7+L7*$AH$7+Q7*$AK$7+R7*$AL$7+S7*$AM$7</f>
+        <v>9</v>
+      </c>
+      <c r="U14" s="140">
+        <f t="shared" ref="U14:U15" si="2">D5*$AA$5+E5*$AB$5+F5*$AC$5+K5*$AF$5+L5*$AG$5+M5*$AH$5+R5*$AK$5+S5*$AL$5+T5*$AM$5+D6*$AA$6+E6*$AB$6+F6*$AC$6+K6*$AF$6+L6*$AG$6+M6*$AH$6+R6*$AK$6+S6*$AL$6+T6*$AM$6+D7*$AA$7+E7*$AB$7+F7*$AC$7+K7*$AF$7+L7*$AG$7+M7*$AH$7+R7*$AK$7+S7*$AL$7+T7*$AM$7</f>
+        <v>8</v>
+      </c>
+      <c r="V14" s="140">
+        <f t="shared" ref="V14:V15" si="3">E5*$AA$5+F5*$AB$5+G5*$AC$5+L5*$AF$5+M5*$AG$5+N5*$AH$5+S5*$AK$5+T5*$AL$5+U5*$AM$5+E6*$AA$6+F6*$AB$6+G6*$AC$6+L6*$AF$6+M6*$AG$6+N6*$AH$6+S6*$AK$6+T6*$AL$6+U6*$AM$6+E7*$AA$7+F7*$AB$7+G7*$AC$7+L7*$AF$7+M7*$AG$7+N7*$AH$7+S7*$AK$7+T7*$AL$7+U7*$AM$7</f>
+        <v>13</v>
+      </c>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="134"/>
+      <c r="AK14" s="134"/>
+      <c r="AL14" s="134"/>
+      <c r="AM14" s="134"/>
+      <c r="AN14" s="134"/>
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="134"/>
+      <c r="AS14" s="134"/>
+      <c r="AT14" s="134"/>
+      <c r="AU14" s="134"/>
+      <c r="AV14" s="134"/>
+      <c r="AW14" s="134"/>
+      <c r="AX14" s="134"/>
+      <c r="AY14" s="134"/>
+      <c r="AZ14" s="134"/>
+      <c r="BA14" s="134"/>
+      <c r="BB14" s="134"/>
+      <c r="BC14" s="134"/>
+      <c r="BD14" s="134"/>
+      <c r="BE14" s="134"/>
+      <c r="BF14" s="134"/>
+      <c r="BG14" s="134"/>
+      <c r="BH14" s="134"/>
+      <c r="BI14" s="134"/>
+      <c r="BJ14" s="134"/>
+      <c r="BK14" s="134"/>
+      <c r="BL14" s="134"/>
+      <c r="BM14" s="134"/>
+      <c r="BN14" s="134"/>
+      <c r="BO14" s="134"/>
+      <c r="BP14" s="134"/>
+      <c r="BQ14" s="134"/>
+      <c r="BR14" s="134"/>
+      <c r="BS14" s="134"/>
+      <c r="BT14" s="134"/>
+      <c r="BU14" s="134"/>
+      <c r="BV14" s="134"/>
+      <c r="BW14" s="134"/>
+      <c r="BX14" s="134"/>
+      <c r="BY14" s="134"/>
+      <c r="BZ14" s="134"/>
+    </row>
+    <row r="15" spans="1:78">
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="140">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U15" s="140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="140">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="134"/>
+      <c r="AK15" s="134"/>
+      <c r="AL15" s="134"/>
+      <c r="AM15" s="134"/>
+      <c r="AN15" s="134"/>
+      <c r="AO15" s="134"/>
+      <c r="AP15" s="134"/>
+      <c r="AQ15" s="134"/>
+      <c r="AR15" s="134"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="134"/>
+      <c r="AU15" s="134"/>
+      <c r="AV15" s="134"/>
+      <c r="AW15" s="134"/>
+      <c r="AX15" s="134"/>
+      <c r="AY15" s="134"/>
+      <c r="AZ15" s="134"/>
+      <c r="BA15" s="134"/>
+      <c r="BB15" s="134"/>
+      <c r="BC15" s="134"/>
+      <c r="BD15" s="134"/>
+      <c r="BE15" s="134"/>
+      <c r="BF15" s="134"/>
+      <c r="BG15" s="134"/>
+      <c r="BH15" s="134"/>
+      <c r="BI15" s="134"/>
+      <c r="BJ15" s="134"/>
+      <c r="BK15" s="134"/>
+      <c r="BL15" s="134"/>
+      <c r="BM15" s="134"/>
+      <c r="BN15" s="134"/>
+      <c r="BO15" s="134"/>
+      <c r="BP15" s="134"/>
+      <c r="BQ15" s="134"/>
+      <c r="BR15" s="134"/>
+      <c r="BS15" s="134"/>
+      <c r="BT15" s="134"/>
+      <c r="BU15" s="134"/>
+      <c r="BV15" s="134"/>
+      <c r="BW15" s="134"/>
+      <c r="BX15" s="134"/>
+      <c r="BY15" s="134"/>
+      <c r="BZ15" s="134"/>
+    </row>
+    <row r="16" spans="1:78" s="28" customFormat="1">
+      <c r="A16" s="142"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="142"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="142"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="142"/>
+      <c r="AJ16" s="142"/>
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="142"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="142"/>
+      <c r="AO16" s="142"/>
+      <c r="AP16" s="142"/>
+      <c r="AQ16" s="142"/>
+      <c r="AR16" s="142"/>
+      <c r="AS16" s="142"/>
+      <c r="AT16" s="142"/>
+      <c r="AU16" s="142"/>
+      <c r="AV16" s="142"/>
+      <c r="AW16" s="142"/>
+      <c r="AX16" s="142"/>
+      <c r="AY16" s="142"/>
+      <c r="AZ16" s="142"/>
+      <c r="BA16" s="142"/>
+      <c r="BB16" s="142"/>
+      <c r="BC16" s="142"/>
+      <c r="BD16" s="142"/>
+      <c r="BE16" s="142"/>
+      <c r="BF16" s="142"/>
+      <c r="BG16" s="142"/>
+      <c r="BH16" s="142"/>
+      <c r="BI16" s="142"/>
+      <c r="BJ16" s="142"/>
+      <c r="BK16" s="142"/>
+      <c r="BL16" s="142"/>
+      <c r="BM16" s="142"/>
+      <c r="BN16" s="142"/>
+      <c r="BO16" s="142"/>
+      <c r="BP16" s="142"/>
+      <c r="BQ16" s="142"/>
+      <c r="BR16" s="142"/>
+      <c r="BS16" s="142"/>
+      <c r="BT16" s="142"/>
+      <c r="BU16" s="142"/>
+      <c r="BV16" s="142"/>
+      <c r="BW16" s="142"/>
+      <c r="BX16" s="142"/>
+      <c r="BY16" s="142"/>
+      <c r="BZ16" s="142"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T12:V12"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4422023-0366-4B9A-B35C-8B38EFA45E0D}">
+  <dimension ref="A1:Y28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" thickBot="1">
+      <c r="B2" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="B3" s="143">
+        <v>2</v>
+      </c>
+      <c r="C3" s="143">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <f>$C$10*B3+$C$11</f>
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <f>E3^2</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">$C$10*B4+$C$11</f>
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">C4-D4</f>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G6" si="2">E4^2</f>
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" s="11">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G3:G6)</f>
+        <v>44</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <f>((1+25+9+9)/4)^0.5</f>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8">
+        <f>(G7/COUNT(G3:G6))^0.5</f>
+        <v>3.3166247903553998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9">
+        <f>G7/COUNT(G3:G6)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10">
+        <f>(ABS(E3)+ABS(E4)+ABS(E5)+ABS(E6))/COUNT(E3:E6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="28" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A18" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17.25" thickBot="1">
+      <c r="B19" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="143">
+        <v>2</v>
+      </c>
+      <c r="C20" s="143">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <f>$C$27*B20+$C$28</f>
+        <v>83.6</v>
+      </c>
+      <c r="E20">
+        <f>C20-D20</f>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="G20">
+        <f>E20^2</f>
+        <v>6.7599999999999705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>93</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="3">$C$27*B21+$C$28</f>
+        <v>88.2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E23" si="4">C21-D21</f>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="5">E21^2</f>
+        <v>23.039999999999974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="B22" s="11">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>92.8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>3.2399999999999896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="B23" s="11">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11">
+        <v>97</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>97.4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0.16000000000000456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G20:G23)</f>
+        <v>33.199999999999939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25">
+        <f>((1+25+9+9)/4)^0.5</f>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25">
+        <f>(G24/COUNT(G20:G23))^0.5</f>
+        <v>2.8809720581775839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26">
+        <f>G24/COUNT(G20:G23)</f>
+        <v>8.2999999999999847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27">
+        <f>(ABS(E20)+ABS(E21)+ABS(E22)+ABS(E23))/COUNT(E20:E23)</f>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0F220-8D2B-4177-926C-3992DBC35A3D}">
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>C2/$C$6</f>
+        <v>0.375</v>
+      </c>
+      <c r="F2">
+        <f>E2^2</f>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3/$C$6</f>
+        <v>0.125</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">E3^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="E7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7">
+        <f>1-F6</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="E8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>C11/$C$13</f>
+        <v>0.875</v>
+      </c>
+      <c r="F11">
+        <f>E11^2</f>
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>C12/$C$13</f>
+        <v>0.125</v>
+      </c>
+      <c r="F12">
+        <f>E12^2</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C11:C12)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F11:F12)</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14">
+        <f>1-F13</f>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD33BF-8026-494A-9973-7DA17E946863}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
